--- a/old.xlsx
+++ b/old.xlsx
@@ -1,21 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torguet/IdeaProjects/Jmetronome/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F78181C-265D-404E-8F2F-8654891F37B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="old" sheetId="1" r:id="rId1"/>
+    <sheet name="old" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -490,22 +482,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="11"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="gray125">
@@ -513,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -522,528 +520,297 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <top style="medium"/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <left style="medium"/>
+      <top style="medium"/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <right style="medium"/>
+      <top style="medium"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <bottom style="medium"/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="medium"/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="medium"/>
+      <bottom style="medium"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <right style="medium"/>
+      <bottom style="medium"/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <top style="medium"/>
+      <bottom style="medium"/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="156082"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E97132"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="196B24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:BA220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" width="10" customWidth="1"/>
-    <col min="3" max="100" width="4" customWidth="1"/>
+    <col min="1" max="1" width="10.0" customWidth="true"/>
+    <col min="2" max="2" width="10.0" customWidth="true"/>
+    <col min="3" max="3" width="4.0" customWidth="true"/>
+    <col min="4" max="4" width="4.0" customWidth="true"/>
+    <col min="5" max="5" width="4.0" customWidth="true"/>
+    <col min="6" max="6" width="4.0" customWidth="true"/>
+    <col min="7" max="7" width="4.0" customWidth="true"/>
+    <col min="8" max="8" width="4.0" customWidth="true"/>
+    <col min="9" max="9" width="4.0" customWidth="true"/>
+    <col min="10" max="10" width="4.0" customWidth="true"/>
+    <col min="11" max="11" width="4.0" customWidth="true"/>
+    <col min="12" max="12" width="4.0" customWidth="true"/>
+    <col min="13" max="13" width="4.0" customWidth="true"/>
+    <col min="14" max="14" width="4.0" customWidth="true"/>
+    <col min="15" max="15" width="4.0" customWidth="true"/>
+    <col min="16" max="16" width="4.0" customWidth="true"/>
+    <col min="17" max="17" width="4.0" customWidth="true"/>
+    <col min="18" max="18" width="4.0" customWidth="true"/>
+    <col min="19" max="19" width="4.0" customWidth="true"/>
+    <col min="20" max="20" width="4.0" customWidth="true"/>
+    <col min="21" max="21" width="4.0" customWidth="true"/>
+    <col min="22" max="22" width="4.0" customWidth="true"/>
+    <col min="23" max="23" width="4.0" customWidth="true"/>
+    <col min="24" max="24" width="4.0" customWidth="true"/>
+    <col min="25" max="25" width="4.0" customWidth="true"/>
+    <col min="26" max="26" width="4.0" customWidth="true"/>
+    <col min="27" max="27" width="4.0" customWidth="true"/>
+    <col min="28" max="28" width="4.0" customWidth="true"/>
+    <col min="29" max="29" width="4.0" customWidth="true"/>
+    <col min="30" max="30" width="4.0" customWidth="true"/>
+    <col min="31" max="31" width="4.0" customWidth="true"/>
+    <col min="32" max="32" width="4.0" customWidth="true"/>
+    <col min="33" max="33" width="4.0" customWidth="true"/>
+    <col min="34" max="34" width="4.0" customWidth="true"/>
+    <col min="35" max="35" width="4.0" customWidth="true"/>
+    <col min="36" max="36" width="4.0" customWidth="true"/>
+    <col min="37" max="37" width="4.0" customWidth="true"/>
+    <col min="38" max="38" width="4.0" customWidth="true"/>
+    <col min="39" max="39" width="4.0" customWidth="true"/>
+    <col min="40" max="40" width="4.0" customWidth="true"/>
+    <col min="41" max="41" width="4.0" customWidth="true"/>
+    <col min="42" max="42" width="4.0" customWidth="true"/>
+    <col min="43" max="43" width="4.0" customWidth="true"/>
+    <col min="44" max="44" width="4.0" customWidth="true"/>
+    <col min="45" max="45" width="4.0" customWidth="true"/>
+    <col min="46" max="46" width="4.0" customWidth="true"/>
+    <col min="47" max="47" width="4.0" customWidth="true"/>
+    <col min="48" max="48" width="4.0" customWidth="true"/>
+    <col min="49" max="49" width="4.0" customWidth="true"/>
+    <col min="50" max="50" width="4.0" customWidth="true"/>
+    <col min="51" max="51" width="4.0" customWidth="true"/>
+    <col min="52" max="52" width="4.0" customWidth="true"/>
+    <col min="53" max="53" width="4.0" customWidth="true"/>
+    <col min="54" max="54" width="4.0" customWidth="true"/>
+    <col min="55" max="55" width="4.0" customWidth="true"/>
+    <col min="56" max="56" width="4.0" customWidth="true"/>
+    <col min="57" max="57" width="4.0" customWidth="true"/>
+    <col min="58" max="58" width="4.0" customWidth="true"/>
+    <col min="59" max="59" width="4.0" customWidth="true"/>
+    <col min="60" max="60" width="4.0" customWidth="true"/>
+    <col min="61" max="61" width="4.0" customWidth="true"/>
+    <col min="62" max="62" width="4.0" customWidth="true"/>
+    <col min="63" max="63" width="4.0" customWidth="true"/>
+    <col min="64" max="64" width="4.0" customWidth="true"/>
+    <col min="65" max="65" width="4.0" customWidth="true"/>
+    <col min="66" max="66" width="4.0" customWidth="true"/>
+    <col min="67" max="67" width="4.0" customWidth="true"/>
+    <col min="68" max="68" width="4.0" customWidth="true"/>
+    <col min="69" max="69" width="4.0" customWidth="true"/>
+    <col min="70" max="70" width="4.0" customWidth="true"/>
+    <col min="71" max="71" width="4.0" customWidth="true"/>
+    <col min="72" max="72" width="4.0" customWidth="true"/>
+    <col min="73" max="73" width="4.0" customWidth="true"/>
+    <col min="74" max="74" width="4.0" customWidth="true"/>
+    <col min="75" max="75" width="4.0" customWidth="true"/>
+    <col min="76" max="76" width="4.0" customWidth="true"/>
+    <col min="77" max="77" width="4.0" customWidth="true"/>
+    <col min="78" max="78" width="4.0" customWidth="true"/>
+    <col min="79" max="79" width="4.0" customWidth="true"/>
+    <col min="80" max="80" width="4.0" customWidth="true"/>
+    <col min="81" max="81" width="4.0" customWidth="true"/>
+    <col min="82" max="82" width="4.0" customWidth="true"/>
+    <col min="83" max="83" width="4.0" customWidth="true"/>
+    <col min="84" max="84" width="4.0" customWidth="true"/>
+    <col min="85" max="85" width="4.0" customWidth="true"/>
+    <col min="86" max="86" width="4.0" customWidth="true"/>
+    <col min="87" max="87" width="4.0" customWidth="true"/>
+    <col min="88" max="88" width="4.0" customWidth="true"/>
+    <col min="89" max="89" width="4.0" customWidth="true"/>
+    <col min="90" max="90" width="4.0" customWidth="true"/>
+    <col min="91" max="91" width="4.0" customWidth="true"/>
+    <col min="92" max="92" width="4.0" customWidth="true"/>
+    <col min="93" max="93" width="4.0" customWidth="true"/>
+    <col min="94" max="94" width="4.0" customWidth="true"/>
+    <col min="95" max="95" width="4.0" customWidth="true"/>
+    <col min="96" max="96" width="4.0" customWidth="true"/>
+    <col min="97" max="97" width="4.0" customWidth="true"/>
+    <col min="98" max="98" width="4.0" customWidth="true"/>
+    <col min="99" max="99" width="4.0" customWidth="true"/>
+    <col min="100" max="100" width="4.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B1">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1">
+      <c r="B1" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="P1" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="X1" t="s">
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>45530</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2">
+      <c r="A2" t="n" s="1">
+        <v>45530.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="3"/>
+    <row r="4">
+      <c r="B4" t="s" s="0">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="5"/>
+    <row r="6">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s" s="2">
         <v>16</v>
       </c>
       <c r="D6" s="4"/>
@@ -1053,7 +820,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="3"/>
-      <c r="L6" s="2" t="s">
+      <c r="L6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="M6" s="4"/>
@@ -1063,7 +830,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="3"/>
-      <c r="Z6" s="2" t="s">
+      <c r="Z6" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AA6" s="4"/>
@@ -1074,8 +841,8 @@
       <c r="AF6" s="4"/>
       <c r="AG6" s="3"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C7" s="6" t="s">
+    <row r="7">
+      <c r="C7" t="s" s="6">
         <v>17</v>
       </c>
       <c r="D7" s="5"/>
@@ -1083,11 +850,11 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="8" t="s">
+      <c r="I7" t="s" s="8">
         <v>18</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="L7" s="6" t="s">
+      <c r="L7" t="s" s="6">
         <v>20</v>
       </c>
       <c r="M7" s="5"/>
@@ -1095,11 +862,11 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="8" t="s">
+      <c r="R7" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S7" s="7"/>
-      <c r="Z7" s="6" t="s">
+      <c r="Z7" t="s" s="6">
         <v>22</v>
       </c>
       <c r="AA7" s="5"/>
@@ -1107,16 +874,16 @@
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
-      <c r="AF7" s="8" t="s">
+      <c r="AF7" t="s" s="8">
         <v>18</v>
       </c>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8">
+      <c r="B8" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" t="s" s="2">
         <v>19</v>
       </c>
       <c r="M8" s="4"/>
@@ -1126,7 +893,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="3"/>
-      <c r="Z8" s="10" t="s">
+      <c r="Z8" t="s" s="10">
         <v>24</v>
       </c>
       <c r="AA8" s="9"/>
@@ -1139,8 +906,8 @@
       </c>
       <c r="AG8" s="11"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="L9" s="6" t="s">
+    <row r="9">
+      <c r="L9" t="s" s="6">
         <v>20</v>
       </c>
       <c r="M9" s="5"/>
@@ -1148,11 +915,11 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="8" t="s">
+      <c r="R9" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S9" s="7"/>
-      <c r="AI9" s="10" t="s">
+      <c r="AI9" t="s" s="10">
         <v>24</v>
       </c>
       <c r="AJ9" s="9"/>
@@ -1165,11 +932,11 @@
       </c>
       <c r="AP9" s="11"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="10">
+      <c r="B10" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s" s="2">
         <v>21</v>
       </c>
       <c r="D10" s="4"/>
@@ -1179,7 +946,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
-      <c r="L10" s="2" t="s">
+      <c r="L10" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M10" s="4"/>
@@ -1189,7 +956,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="3"/>
-      <c r="Z10" s="2" t="s">
+      <c r="Z10" t="s" s="2">
         <v>28</v>
       </c>
       <c r="AA10" s="4"/>
@@ -1208,8 +975,8 @@
       <c r="AN10" s="4"/>
       <c r="AO10" s="3"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C11" s="6" t="s">
+    <row r="11">
+      <c r="C11" t="s" s="6">
         <v>22</v>
       </c>
       <c r="D11" s="5"/>
@@ -1217,7 +984,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="8" t="s">
+      <c r="I11" t="s" s="8">
         <v>18</v>
       </c>
       <c r="J11" s="7"/>
@@ -1227,7 +994,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="8" t="s">
+      <c r="R11" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S11" s="7"/>
@@ -1248,58 +1015,95 @@
       <c r="AN11" s="8"/>
       <c r="AO11" s="7"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="12">
+      <c r="B12" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L12" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P12" t="s">
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T12" t="s">
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="X12" t="s">
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AS12" s="14"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>45537</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13">
+      <c r="A13" t="n" s="1">
+        <v>45537.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s" s="2">
         <v>29</v>
       </c>
       <c r="D13" s="4"/>
@@ -1309,7 +1113,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="3"/>
-      <c r="L13" s="2" t="s">
+      <c r="L13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="M13" s="4"/>
@@ -1319,7 +1123,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="3"/>
-      <c r="Z13" s="10" t="s">
+      <c r="Z13" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA13" s="9"/>
@@ -1331,7 +1135,7 @@
         <v>32</v>
       </c>
       <c r="AG13" s="11"/>
-      <c r="AI13" s="2" t="s">
+      <c r="AI13" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ13" s="4"/>
@@ -1342,8 +1146,8 @@
       <c r="AO13" s="4"/>
       <c r="AP13" s="3"/>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C14" s="6" t="s">
+    <row r="14">
+      <c r="C14" t="s" s="6">
         <v>30</v>
       </c>
       <c r="D14" s="5"/>
@@ -1351,11 +1155,11 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="8" t="s">
+      <c r="I14" t="s" s="8">
         <v>18</v>
       </c>
       <c r="J14" s="7"/>
-      <c r="L14" s="6" t="s">
+      <c r="L14" t="s" s="6">
         <v>20</v>
       </c>
       <c r="M14" s="5"/>
@@ -1363,11 +1167,11 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="8" t="s">
+      <c r="R14" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S14" s="7"/>
-      <c r="AI14" s="6" t="s">
+      <c r="AI14" t="s" s="6">
         <v>22</v>
       </c>
       <c r="AJ14" s="5"/>
@@ -1375,16 +1179,16 @@
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="5"/>
-      <c r="AO14" s="8" t="s">
+      <c r="AO14" t="s" s="8">
         <v>18</v>
       </c>
       <c r="AP14" s="7"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="15">
+      <c r="B15" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s" s="2">
         <v>21</v>
       </c>
       <c r="D15" s="4"/>
@@ -1394,7 +1198,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
-      <c r="L15" s="2" t="s">
+      <c r="L15" t="s" s="2">
         <v>34</v>
       </c>
       <c r="M15" s="4"/>
@@ -1404,7 +1208,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="3"/>
-      <c r="Z15" s="10" t="s">
+      <c r="Z15" t="s" s="10">
         <v>36</v>
       </c>
       <c r="AA15" s="9"/>
@@ -1417,8 +1221,8 @@
       </c>
       <c r="AG15" s="11"/>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C16" s="6" t="s">
+    <row r="16">
+      <c r="C16" t="s" s="6">
         <v>22</v>
       </c>
       <c r="D16" s="5"/>
@@ -1426,11 +1230,11 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="8" t="s">
+      <c r="I16" t="s" s="8">
         <v>18</v>
       </c>
       <c r="J16" s="7"/>
-      <c r="L16" s="6" t="s">
+      <c r="L16" t="s" s="6">
         <v>35</v>
       </c>
       <c r="M16" s="5"/>
@@ -1438,11 +1242,11 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="8" t="s">
+      <c r="R16" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S16" s="7"/>
-      <c r="Z16" s="10" t="s">
+      <c r="Z16" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA16" s="9"/>
@@ -1455,11 +1259,11 @@
       </c>
       <c r="AG16" s="11"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="17">
+      <c r="B17" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s" s="2">
         <v>34</v>
       </c>
       <c r="D17" s="4"/>
@@ -1469,7 +1273,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="3"/>
-      <c r="L17" s="2" t="s">
+      <c r="L17" t="s" s="2">
         <v>34</v>
       </c>
       <c r="M17" s="4"/>
@@ -1479,7 +1283,7 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="3"/>
-      <c r="AI17" s="10" t="s">
+      <c r="AI17" t="s" s="10">
         <v>41</v>
       </c>
       <c r="AJ17" s="9"/>
@@ -1492,8 +1296,8 @@
       </c>
       <c r="AP17" s="11"/>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C18" s="6" t="s">
+    <row r="18">
+      <c r="C18" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D18" s="5"/>
@@ -1501,11 +1305,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="8" t="s">
+      <c r="I18" t="s" s="8">
         <v>39</v>
       </c>
       <c r="J18" s="7"/>
-      <c r="L18" s="6" t="s">
+      <c r="L18" t="s" s="6">
         <v>40</v>
       </c>
       <c r="M18" s="5"/>
@@ -1513,16 +1317,16 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="8" t="s">
+      <c r="R18" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="19">
+      <c r="B19" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s" s="2">
         <v>34</v>
       </c>
       <c r="D19" s="4"/>
@@ -1532,7 +1336,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="3"/>
-      <c r="L19" s="2" t="s">
+      <c r="L19" t="s" s="2">
         <v>33</v>
       </c>
       <c r="M19" s="4"/>
@@ -1542,7 +1346,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="3"/>
-      <c r="Z19" s="2" t="s">
+      <c r="Z19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA19" s="4"/>
@@ -1562,8 +1366,8 @@
       <c r="AO19" s="4"/>
       <c r="AP19" s="3"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C20" s="6" t="s">
+    <row r="20">
+      <c r="C20" t="s" s="6">
         <v>42</v>
       </c>
       <c r="D20" s="5"/>
@@ -1571,11 +1375,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="8" t="s">
+      <c r="I20" t="s" s="8">
         <v>18</v>
       </c>
       <c r="J20" s="7"/>
-      <c r="L20" s="6" t="s">
+      <c r="L20" t="s" s="6">
         <v>22</v>
       </c>
       <c r="M20" s="5"/>
@@ -1583,7 +1387,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="8" t="s">
+      <c r="R20" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S20" s="7"/>
@@ -1605,11 +1409,11 @@
       <c r="AO20" s="8"/>
       <c r="AP20" s="7"/>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21">
+      <c r="B21" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" t="s" s="10">
         <v>44</v>
       </c>
       <c r="D21" s="9"/>
@@ -1621,7 +1425,7 @@
         <v>18</v>
       </c>
       <c r="J21" s="11"/>
-      <c r="L21" s="10" t="s">
+      <c r="L21" t="s" s="10">
         <v>45</v>
       </c>
       <c r="M21" s="9"/>
@@ -1634,8 +1438,8 @@
       </c>
       <c r="S21" s="11"/>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C22" s="10" t="s">
+    <row r="22">
+      <c r="C22" t="s" s="10">
         <v>47</v>
       </c>
       <c r="D22" s="9"/>
@@ -1647,7 +1451,7 @@
         <v>48</v>
       </c>
       <c r="J22" s="11"/>
-      <c r="L22" s="10" t="s">
+      <c r="L22" t="s" s="10">
         <v>41</v>
       </c>
       <c r="M22" s="9"/>
@@ -1659,7 +1463,7 @@
         <v>49</v>
       </c>
       <c r="S22" s="11"/>
-      <c r="Z22" s="10" t="s">
+      <c r="Z22" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AA22" s="9"/>
@@ -1672,58 +1476,95 @@
       </c>
       <c r="AG22" s="11"/>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
+    <row r="23">
+      <c r="B23" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H23" t="s">
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L23" t="s">
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P23" t="s">
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="T23" t="s">
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="X23" t="s">
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AN23" t="s">
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AR23" t="s">
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="AZ23" t="s">
+      <c r="AW23" s="15"/>
+      <c r="AX23" s="15"/>
+      <c r="AY23" s="15"/>
+      <c r="AZ23" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>45544</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24">
+      <c r="A24" t="n" s="1">
+        <v>45544.0</v>
+      </c>
+      <c r="B24" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D24" s="4"/>
@@ -1733,7 +1574,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="3"/>
-      <c r="L24" s="2" t="s">
+      <c r="L24" t="s" s="2">
         <v>34</v>
       </c>
       <c r="M24" s="4"/>
@@ -1743,7 +1584,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="3"/>
-      <c r="Z24" s="10" t="s">
+      <c r="Z24" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA24" s="9"/>
@@ -1755,7 +1596,7 @@
         <v>32</v>
       </c>
       <c r="AG24" s="11"/>
-      <c r="AI24" s="2" t="s">
+      <c r="AI24" t="s" s="2">
         <v>33</v>
       </c>
       <c r="AJ24" s="4"/>
@@ -1766,8 +1607,8 @@
       <c r="AO24" s="4"/>
       <c r="AP24" s="3"/>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C25" s="6" t="s">
+    <row r="25">
+      <c r="C25" t="s" s="6">
         <v>30</v>
       </c>
       <c r="D25" s="5"/>
@@ -1775,11 +1616,11 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="8" t="s">
+      <c r="I25" t="s" s="8">
         <v>18</v>
       </c>
       <c r="J25" s="7"/>
-      <c r="L25" s="6" t="s">
+      <c r="L25" t="s" s="6">
         <v>40</v>
       </c>
       <c r="M25" s="5"/>
@@ -1787,11 +1628,11 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="8" t="s">
+      <c r="R25" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S25" s="7"/>
-      <c r="AI25" s="6" t="s">
+      <c r="AI25" t="s" s="6">
         <v>22</v>
       </c>
       <c r="AJ25" s="5"/>
@@ -1799,16 +1640,16 @@
       <c r="AL25" s="5"/>
       <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
-      <c r="AO25" s="8" t="s">
+      <c r="AO25" t="s" s="8">
         <v>18</v>
       </c>
       <c r="AP25" s="7"/>
     </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="26">
+      <c r="B26" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" t="s" s="10">
         <v>51</v>
       </c>
       <c r="D26" s="9"/>
@@ -1818,7 +1659,7 @@
         <v>52</v>
       </c>
       <c r="H26" s="11"/>
-      <c r="L26" s="10" t="s">
+      <c r="L26" t="s" s="10">
         <v>53</v>
       </c>
       <c r="M26" s="9"/>
@@ -1830,7 +1671,7 @@
         <v>18</v>
       </c>
       <c r="S26" s="11"/>
-      <c r="Z26" s="10" t="s">
+      <c r="Z26" t="s" s="10">
         <v>54</v>
       </c>
       <c r="AA26" s="9"/>
@@ -1842,7 +1683,7 @@
         <v>18</v>
       </c>
       <c r="AG26" s="11"/>
-      <c r="AI26" s="10" t="s">
+      <c r="AI26" t="s" s="10">
         <v>55</v>
       </c>
       <c r="AJ26" s="9"/>
@@ -1855,8 +1696,8 @@
       </c>
       <c r="AP26" s="11"/>
     </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C27" s="10" t="s">
+    <row r="27">
+      <c r="C27" t="s" s="10">
         <v>56</v>
       </c>
       <c r="D27" s="9"/>
@@ -1868,7 +1709,7 @@
         <v>25</v>
       </c>
       <c r="J27" s="11"/>
-      <c r="L27" s="10" t="s">
+      <c r="L27" t="s" s="10">
         <v>24</v>
       </c>
       <c r="M27" s="9"/>
@@ -1880,7 +1721,7 @@
         <v>49</v>
       </c>
       <c r="S27" s="11"/>
-      <c r="Z27" s="10" t="s">
+      <c r="Z27" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA27" s="9"/>
@@ -1893,11 +1734,11 @@
       </c>
       <c r="AG27" s="11"/>
     </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="28">
+      <c r="B28" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s" s="2">
         <v>34</v>
       </c>
       <c r="D28" s="4"/>
@@ -1907,7 +1748,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="3"/>
-      <c r="L28" s="10" t="s">
+      <c r="L28" t="s" s="10">
         <v>24</v>
       </c>
       <c r="M28" s="9"/>
@@ -1919,7 +1760,7 @@
         <v>25</v>
       </c>
       <c r="S28" s="11"/>
-      <c r="Z28" s="2" t="s">
+      <c r="Z28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA28" s="4"/>
@@ -1929,7 +1770,7 @@
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="3"/>
-      <c r="AI28" s="2" t="s">
+      <c r="AI28" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ28" s="4"/>
@@ -1940,8 +1781,8 @@
       <c r="AO28" s="4"/>
       <c r="AP28" s="3"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C29" s="6" t="s">
+    <row r="29">
+      <c r="C29" t="s" s="6">
         <v>42</v>
       </c>
       <c r="D29" s="5"/>
@@ -1949,7 +1790,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="8" t="s">
+      <c r="I29" t="s" s="8">
         <v>57</v>
       </c>
       <c r="J29" s="7"/>
@@ -1959,7 +1800,7 @@
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
-      <c r="AF29" s="8" t="s">
+      <c r="AF29" t="s" s="8">
         <v>25</v>
       </c>
       <c r="AG29" s="7"/>
@@ -1969,16 +1810,16 @@
       <c r="AL29" s="5"/>
       <c r="AM29" s="5"/>
       <c r="AN29" s="5"/>
-      <c r="AO29" s="8" t="s">
+      <c r="AO29" t="s" s="8">
         <v>25</v>
       </c>
       <c r="AP29" s="7"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="30">
+      <c r="B30" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" t="s" s="10">
         <v>45</v>
       </c>
       <c r="D30" s="9"/>
@@ -1990,7 +1831,7 @@
         <v>49</v>
       </c>
       <c r="J30" s="11"/>
-      <c r="L30" s="2" t="s">
+      <c r="L30" t="s" s="2">
         <v>33</v>
       </c>
       <c r="M30" s="4"/>
@@ -2000,7 +1841,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="3"/>
-      <c r="Z30" s="2" t="s">
+      <c r="Z30" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AA30" s="4"/>
@@ -2020,8 +1861,8 @@
       <c r="AO30" s="4"/>
       <c r="AP30" s="3"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="L31" s="6" t="s">
+    <row r="31">
+      <c r="L31" t="s" s="6">
         <v>22</v>
       </c>
       <c r="M31" s="5"/>
@@ -2029,7 +1870,7 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="8" t="s">
+      <c r="R31" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S31" s="7"/>
@@ -2051,11 +1892,11 @@
       <c r="AO31" s="8"/>
       <c r="AP31" s="7"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="32">
+      <c r="B32" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" t="s" s="10">
         <v>44</v>
       </c>
       <c r="D32" s="9"/>
@@ -2067,7 +1908,7 @@
         <v>18</v>
       </c>
       <c r="J32" s="11"/>
-      <c r="AI32" s="2" t="s">
+      <c r="AI32" t="s" s="2">
         <v>34</v>
       </c>
       <c r="AJ32" s="4"/>
@@ -2078,8 +1919,8 @@
       <c r="AO32" s="4"/>
       <c r="AP32" s="3"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="L33" s="10" t="s">
+    <row r="33">
+      <c r="L33" t="s" s="10">
         <v>47</v>
       </c>
       <c r="M33" s="9"/>
@@ -2091,7 +1932,7 @@
         <v>49</v>
       </c>
       <c r="S33" s="11"/>
-      <c r="Z33" s="10" t="s">
+      <c r="Z33" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AA33" s="9"/>
@@ -2103,7 +1944,7 @@
         <v>25</v>
       </c>
       <c r="AG33" s="11"/>
-      <c r="AI33" s="6" t="s">
+      <c r="AI33" t="s" s="6">
         <v>35</v>
       </c>
       <c r="AJ33" s="5"/>
@@ -2111,63 +1952,100 @@
       <c r="AL33" s="5"/>
       <c r="AM33" s="5"/>
       <c r="AN33" s="5"/>
-      <c r="AO33" s="8" t="s">
+      <c r="AO33" t="s" s="8">
         <v>18</v>
       </c>
       <c r="AP33" s="7"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>38</v>
-      </c>
-      <c r="D34" t="s">
+    <row r="34">
+      <c r="B34" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H34" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L34" t="s">
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="P34" t="s">
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T34" t="s">
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="X34" t="s">
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AJ34" t="s">
+      <c r="AG34" s="16"/>
+      <c r="AH34" s="16"/>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AN34" t="s">
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="16"/>
+      <c r="AM34" s="16"/>
+      <c r="AN34" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AR34" t="s">
+      <c r="AO34" s="16"/>
+      <c r="AP34" s="16"/>
+      <c r="AQ34" s="16"/>
+      <c r="AR34" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AV34" t="s">
+      <c r="AS34" s="16"/>
+      <c r="AT34" s="16"/>
+      <c r="AU34" s="16"/>
+      <c r="AV34" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AZ34" t="s">
+      <c r="AW34" s="16"/>
+      <c r="AX34" s="16"/>
+      <c r="AY34" s="16"/>
+      <c r="AZ34" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>45551</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="35">
+      <c r="A35" t="n" s="1">
+        <v>45551.0</v>
+      </c>
+      <c r="B35" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D35" s="4"/>
@@ -2177,7 +2055,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="3"/>
-      <c r="L35" s="2" t="s">
+      <c r="L35" t="s" s="2">
         <v>34</v>
       </c>
       <c r="M35" s="4"/>
@@ -2187,7 +2065,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="3"/>
-      <c r="Z35" s="10" t="s">
+      <c r="Z35" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA35" s="9"/>
@@ -2199,7 +2077,7 @@
         <v>32</v>
       </c>
       <c r="AG35" s="11"/>
-      <c r="AI35" s="10" t="s">
+      <c r="AI35" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AJ35" s="9"/>
@@ -2212,8 +2090,8 @@
       </c>
       <c r="AP35" s="11"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C36" s="6" t="s">
+    <row r="36">
+      <c r="C36" t="s" s="6">
         <v>30</v>
       </c>
       <c r="D36" s="5"/>
@@ -2221,11 +2099,11 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="8" t="s">
+      <c r="I36" t="s" s="8">
         <v>18</v>
       </c>
       <c r="J36" s="7"/>
-      <c r="L36" s="6" t="s">
+      <c r="L36" t="s" s="6">
         <v>40</v>
       </c>
       <c r="M36" s="5"/>
@@ -2233,16 +2111,16 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
-      <c r="R36" s="8" t="s">
+      <c r="R36" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="37">
+      <c r="B37" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" t="s" s="10">
         <v>41</v>
       </c>
       <c r="D37" s="9"/>
@@ -2254,7 +2132,7 @@
         <v>49</v>
       </c>
       <c r="J37" s="11"/>
-      <c r="L37" s="10" t="s">
+      <c r="L37" t="s" s="10">
         <v>53</v>
       </c>
       <c r="M37" s="9"/>
@@ -2266,7 +2144,7 @@
         <v>18</v>
       </c>
       <c r="S37" s="11"/>
-      <c r="Z37" s="10" t="s">
+      <c r="Z37" t="s" s="10">
         <v>54</v>
       </c>
       <c r="AA37" s="9"/>
@@ -2278,7 +2156,7 @@
         <v>18</v>
       </c>
       <c r="AG37" s="11"/>
-      <c r="AI37" s="10" t="s">
+      <c r="AI37" t="s" s="10">
         <v>55</v>
       </c>
       <c r="AJ37" s="9"/>
@@ -2291,8 +2169,8 @@
       </c>
       <c r="AP37" s="11"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C38" s="10" t="s">
+    <row r="38">
+      <c r="C38" t="s" s="10">
         <v>56</v>
       </c>
       <c r="D38" s="9"/>
@@ -2304,7 +2182,7 @@
         <v>25</v>
       </c>
       <c r="J38" s="11"/>
-      <c r="Z38" s="10" t="s">
+      <c r="Z38" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA38" s="9"/>
@@ -2316,7 +2194,7 @@
         <v>38</v>
       </c>
       <c r="AG38" s="11"/>
-      <c r="AI38" s="10" t="s">
+      <c r="AI38" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AJ38" s="9"/>
@@ -2329,11 +2207,11 @@
       </c>
       <c r="AP38" s="11"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="39">
+      <c r="B39" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="M39" s="4"/>
@@ -2343,7 +2221,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="3"/>
-      <c r="AI39" s="10" t="s">
+      <c r="AI39" t="s" s="10">
         <v>51</v>
       </c>
       <c r="AJ39" s="9"/>
@@ -2356,8 +2234,8 @@
       </c>
       <c r="AP39" s="11"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C40" s="10" t="s">
+    <row r="40">
+      <c r="C40" t="s" s="10">
         <v>51</v>
       </c>
       <c r="D40" s="9"/>
@@ -2369,7 +2247,7 @@
         <v>61</v>
       </c>
       <c r="J40" s="11"/>
-      <c r="L40" s="6" t="s">
+      <c r="L40" t="s" s="6">
         <v>60</v>
       </c>
       <c r="M40" s="5"/>
@@ -2377,11 +2255,11 @@
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
-      <c r="R40" s="8" t="s">
+      <c r="R40" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S40" s="7"/>
-      <c r="Z40" s="10" t="s">
+      <c r="Z40" t="s" s="10">
         <v>47</v>
       </c>
       <c r="AA40" s="9"/>
@@ -2394,11 +2272,11 @@
       </c>
       <c r="AG40" s="11"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="41">
+      <c r="B41" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" t="s" s="10">
         <v>62</v>
       </c>
       <c r="D41" s="9"/>
@@ -2410,7 +2288,7 @@
         <v>49</v>
       </c>
       <c r="J41" s="11"/>
-      <c r="L41" s="10" t="s">
+      <c r="L41" t="s" s="10">
         <v>63</v>
       </c>
       <c r="M41" s="9"/>
@@ -2422,7 +2300,7 @@
         <v>49</v>
       </c>
       <c r="S41" s="11"/>
-      <c r="Z41" s="2" t="s">
+      <c r="Z41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA41" s="4"/>
@@ -2442,7 +2320,7 @@
       <c r="AO41" s="4"/>
       <c r="AP41" s="3"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="Z42" s="6"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
@@ -2461,11 +2339,11 @@
       <c r="AO42" s="8"/>
       <c r="AP42" s="7"/>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="43">
+      <c r="B43" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" t="s" s="10">
         <v>44</v>
       </c>
       <c r="D43" s="9"/>
@@ -2477,7 +2355,7 @@
         <v>18</v>
       </c>
       <c r="J43" s="11"/>
-      <c r="L43" s="10" t="s">
+      <c r="L43" t="s" s="10">
         <v>64</v>
       </c>
       <c r="M43" s="9"/>
@@ -2487,7 +2365,7 @@
       <c r="Q43" s="9"/>
       <c r="R43" s="12"/>
       <c r="S43" s="11"/>
-      <c r="Z43" s="2" t="s">
+      <c r="Z43" t="s" s="2">
         <v>28</v>
       </c>
       <c r="AA43" s="4"/>
@@ -2507,8 +2385,8 @@
       <c r="AO43" s="4"/>
       <c r="AP43" s="3"/>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C44" s="10" t="s">
+    <row r="44">
+      <c r="C44" t="s" s="10">
         <v>51</v>
       </c>
       <c r="D44" s="9"/>
@@ -2520,7 +2398,7 @@
         <v>61</v>
       </c>
       <c r="J44" s="11"/>
-      <c r="L44" s="10" t="s">
+      <c r="L44" t="s" s="10">
         <v>41</v>
       </c>
       <c r="M44" s="9"/>
@@ -2550,58 +2428,95 @@
       <c r="AO44" s="8"/>
       <c r="AP44" s="7"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B45">
-        <v>39</v>
-      </c>
-      <c r="D45" t="s">
+    <row r="45">
+      <c r="B45" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H45" t="s">
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L45" t="s">
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="P45" t="s">
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="T45" t="s">
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="X45" t="s">
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AF45" t="s">
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AJ45" t="s">
+      <c r="AG45" s="17"/>
+      <c r="AH45" s="17"/>
+      <c r="AI45" s="17"/>
+      <c r="AJ45" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AN45" t="s">
+      <c r="AK45" s="17"/>
+      <c r="AL45" s="17"/>
+      <c r="AM45" s="17"/>
+      <c r="AN45" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AR45" t="s">
+      <c r="AO45" s="17"/>
+      <c r="AP45" s="17"/>
+      <c r="AQ45" s="17"/>
+      <c r="AR45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AV45" t="s">
+      <c r="AS45" s="17"/>
+      <c r="AT45" s="17"/>
+      <c r="AU45" s="17"/>
+      <c r="AV45" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AZ45" t="s">
+      <c r="AW45" s="17"/>
+      <c r="AX45" s="17"/>
+      <c r="AY45" s="17"/>
+      <c r="AZ45" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>45558</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="46">
+      <c r="A46" t="n" s="1">
+        <v>45558.0</v>
+      </c>
+      <c r="B46" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D46" s="4"/>
@@ -2611,7 +2526,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="3"/>
-      <c r="L46" s="2" t="s">
+      <c r="L46" t="s" s="2">
         <v>34</v>
       </c>
       <c r="M46" s="4"/>
@@ -2621,7 +2536,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="3"/>
-      <c r="Z46" s="10" t="s">
+      <c r="Z46" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA46" s="9"/>
@@ -2633,7 +2548,7 @@
         <v>32</v>
       </c>
       <c r="AG46" s="11"/>
-      <c r="AI46" s="10" t="s">
+      <c r="AI46" t="s" s="10">
         <v>65</v>
       </c>
       <c r="AJ46" s="9"/>
@@ -2646,8 +2561,8 @@
       </c>
       <c r="AP46" s="11"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C47" s="6" t="s">
+    <row r="47">
+      <c r="C47" t="s" s="6">
         <v>30</v>
       </c>
       <c r="D47" s="5"/>
@@ -2655,11 +2570,11 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="8" t="s">
+      <c r="I47" t="s" s="8">
         <v>18</v>
       </c>
       <c r="J47" s="7"/>
-      <c r="L47" s="6" t="s">
+      <c r="L47" t="s" s="6">
         <v>42</v>
       </c>
       <c r="M47" s="5"/>
@@ -2667,11 +2582,11 @@
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
-      <c r="R47" s="8" t="s">
+      <c r="R47" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S47" s="7"/>
-      <c r="AI47" s="10" t="s">
+      <c r="AI47" t="s" s="10">
         <v>51</v>
       </c>
       <c r="AJ47" s="9"/>
@@ -2684,11 +2599,11 @@
       </c>
       <c r="AP47" s="11"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="48">
+      <c r="B48" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" t="s" s="10">
         <v>51</v>
       </c>
       <c r="D48" s="9"/>
@@ -2700,7 +2615,7 @@
         <v>25</v>
       </c>
       <c r="J48" s="11"/>
-      <c r="L48" s="10" t="s">
+      <c r="L48" t="s" s="10">
         <v>53</v>
       </c>
       <c r="M48" s="9"/>
@@ -2712,7 +2627,7 @@
         <v>18</v>
       </c>
       <c r="S48" s="11"/>
-      <c r="Z48" s="10" t="s">
+      <c r="Z48" t="s" s="10">
         <v>54</v>
       </c>
       <c r="AA48" s="9"/>
@@ -2724,7 +2639,7 @@
         <v>18</v>
       </c>
       <c r="AG48" s="11"/>
-      <c r="AI48" s="10" t="s">
+      <c r="AI48" t="s" s="10">
         <v>55</v>
       </c>
       <c r="AJ48" s="9"/>
@@ -2737,8 +2652,8 @@
       </c>
       <c r="AP48" s="11"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C49" s="10" t="s">
+    <row r="49">
+      <c r="C49" t="s" s="10">
         <v>56</v>
       </c>
       <c r="D49" s="9"/>
@@ -2750,7 +2665,7 @@
         <v>49</v>
       </c>
       <c r="J49" s="11"/>
-      <c r="L49" s="10" t="s">
+      <c r="L49" t="s" s="10">
         <v>66</v>
       </c>
       <c r="M49" s="9"/>
@@ -2762,7 +2677,7 @@
         <v>49</v>
       </c>
       <c r="S49" s="11"/>
-      <c r="Z49" s="10" t="s">
+      <c r="Z49" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA49" s="9"/>
@@ -2774,7 +2689,7 @@
         <v>38</v>
       </c>
       <c r="AG49" s="11"/>
-      <c r="AI49" s="10" t="s">
+      <c r="AI49" t="s" s="10">
         <v>65</v>
       </c>
       <c r="AJ49" s="9"/>
@@ -2787,11 +2702,11 @@
       </c>
       <c r="AP49" s="11"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="50">
+      <c r="B50" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s" s="2">
         <v>34</v>
       </c>
       <c r="D50" s="4"/>
@@ -2801,7 +2716,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="3"/>
-      <c r="L50" s="10" t="s">
+      <c r="L50" t="s" s="10">
         <v>66</v>
       </c>
       <c r="M50" s="9"/>
@@ -2813,7 +2728,7 @@
         <v>25</v>
       </c>
       <c r="S50" s="11"/>
-      <c r="Z50" s="10" t="s">
+      <c r="Z50" t="s" s="10">
         <v>58</v>
       </c>
       <c r="AA50" s="9"/>
@@ -2826,8 +2741,8 @@
       </c>
       <c r="AG50" s="11"/>
     </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C51" s="6" t="s">
+    <row r="51">
+      <c r="C51" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D51" s="5"/>
@@ -2835,11 +2750,11 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="8" t="s">
+      <c r="I51" t="s" s="8">
         <v>68</v>
       </c>
       <c r="J51" s="7"/>
-      <c r="L51" s="10" t="s">
+      <c r="L51" t="s" s="10">
         <v>58</v>
       </c>
       <c r="M51" s="9"/>
@@ -2851,7 +2766,7 @@
         <v>68</v>
       </c>
       <c r="S51" s="11"/>
-      <c r="Z51" s="10" t="s">
+      <c r="Z51" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AA51" s="9"/>
@@ -2863,7 +2778,7 @@
         <v>25</v>
       </c>
       <c r="AG51" s="11"/>
-      <c r="AI51" s="10" t="s">
+      <c r="AI51" t="s" s="10">
         <v>47</v>
       </c>
       <c r="AJ51" s="9"/>
@@ -2876,11 +2791,11 @@
       </c>
       <c r="AP51" s="11"/>
     </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="52">
+      <c r="B52" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" t="s" s="10">
         <v>62</v>
       </c>
       <c r="D52" s="9"/>
@@ -2892,7 +2807,7 @@
         <v>49</v>
       </c>
       <c r="J52" s="11"/>
-      <c r="L52" s="10" t="s">
+      <c r="L52" t="s" s="10">
         <v>63</v>
       </c>
       <c r="M52" s="9"/>
@@ -2904,7 +2819,7 @@
         <v>49</v>
       </c>
       <c r="S52" s="11"/>
-      <c r="Z52" s="2" t="s">
+      <c r="Z52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA52" s="4"/>
@@ -2924,7 +2839,7 @@
       <c r="AO52" s="4"/>
       <c r="AP52" s="3"/>
     </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="Z53" s="6"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
@@ -2943,11 +2858,11 @@
       <c r="AO53" s="8"/>
       <c r="AP53" s="7"/>
     </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+    <row r="54">
+      <c r="B54" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" t="s" s="10">
         <v>44</v>
       </c>
       <c r="D54" s="9"/>
@@ -2959,7 +2874,7 @@
         <v>18</v>
       </c>
       <c r="J54" s="11"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" t="s" s="10">
         <v>64</v>
       </c>
       <c r="M54" s="9"/>
@@ -2970,58 +2885,96 @@
       <c r="R54" s="12"/>
       <c r="S54" s="11"/>
     </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B56">
-        <v>40</v>
-      </c>
-      <c r="D56" t="s">
+    <row r="55"/>
+    <row r="56">
+      <c r="B56" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H56" t="s">
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L56" t="s">
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="P56" t="s">
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="T56" t="s">
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="X56" t="s">
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="18"/>
+      <c r="AA56" s="18"/>
+      <c r="AB56" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AF56" t="s">
+      <c r="AC56" s="18"/>
+      <c r="AD56" s="18"/>
+      <c r="AE56" s="18"/>
+      <c r="AF56" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AJ56" t="s">
+      <c r="AG56" s="18"/>
+      <c r="AH56" s="18"/>
+      <c r="AI56" s="18"/>
+      <c r="AJ56" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AN56" t="s">
+      <c r="AK56" s="18"/>
+      <c r="AL56" s="18"/>
+      <c r="AM56" s="18"/>
+      <c r="AN56" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AR56" t="s">
+      <c r="AO56" s="18"/>
+      <c r="AP56" s="18"/>
+      <c r="AQ56" s="18"/>
+      <c r="AR56" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AV56" t="s">
+      <c r="AS56" s="18"/>
+      <c r="AT56" s="18"/>
+      <c r="AU56" s="18"/>
+      <c r="AV56" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AZ56" t="s">
+      <c r="AW56" s="18"/>
+      <c r="AX56" s="18"/>
+      <c r="AY56" s="18"/>
+      <c r="AZ56" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>45565</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="57">
+      <c r="A57" t="n" s="1">
+        <v>45565.0</v>
+      </c>
+      <c r="B57" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D57" s="4"/>
@@ -3031,7 +2984,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="3"/>
-      <c r="Z57" s="10" t="s">
+      <c r="Z57" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA57" s="9"/>
@@ -3043,7 +2996,7 @@
         <v>38</v>
       </c>
       <c r="AG57" s="11"/>
-      <c r="AI57" s="10" t="s">
+      <c r="AI57" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AJ57" s="9"/>
@@ -3056,8 +3009,8 @@
       </c>
       <c r="AP57" s="11"/>
     </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C58" s="6" t="s">
+    <row r="58">
+      <c r="C58" t="s" s="6">
         <v>30</v>
       </c>
       <c r="D58" s="5"/>
@@ -3065,11 +3018,11 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="8" t="s">
+      <c r="I58" t="s" s="8">
         <v>18</v>
       </c>
       <c r="J58" s="7"/>
-      <c r="AI58" s="10" t="s">
+      <c r="AI58" t="s" s="10">
         <v>51</v>
       </c>
       <c r="AJ58" s="9"/>
@@ -3082,11 +3035,11 @@
       </c>
       <c r="AP58" s="11"/>
     </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    <row r="59">
+      <c r="B59" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" t="s" s="10">
         <v>41</v>
       </c>
       <c r="D59" s="9"/>
@@ -3098,7 +3051,7 @@
         <v>49</v>
       </c>
       <c r="J59" s="11"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" t="s" s="10">
         <v>51</v>
       </c>
       <c r="M59" s="9"/>
@@ -3110,7 +3063,7 @@
         <v>70</v>
       </c>
       <c r="S59" s="11"/>
-      <c r="Z59" s="10" t="s">
+      <c r="Z59" t="s" s="10">
         <v>54</v>
       </c>
       <c r="AA59" s="9"/>
@@ -3122,7 +3075,7 @@
         <v>18</v>
       </c>
       <c r="AG59" s="11"/>
-      <c r="AI59" s="2" t="s">
+      <c r="AI59" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AJ59" s="4"/>
@@ -3133,8 +3086,8 @@
       <c r="AO59" s="4"/>
       <c r="AP59" s="3"/>
     </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C60" s="10" t="s">
+    <row r="60">
+      <c r="C60" t="s" s="10">
         <v>56</v>
       </c>
       <c r="D60" s="9"/>
@@ -3146,7 +3099,7 @@
         <v>74</v>
       </c>
       <c r="J60" s="11"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" t="s" s="10">
         <v>41</v>
       </c>
       <c r="M60" s="9"/>
@@ -3158,7 +3111,7 @@
         <v>75</v>
       </c>
       <c r="S60" s="11"/>
-      <c r="Z60" s="10" t="s">
+      <c r="Z60" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA60" s="9"/>
@@ -3170,7 +3123,7 @@
         <v>32</v>
       </c>
       <c r="AG60" s="11"/>
-      <c r="AI60" s="6" t="s">
+      <c r="AI60" t="s" s="6">
         <v>72</v>
       </c>
       <c r="AJ60" s="5"/>
@@ -3178,16 +3131,16 @@
       <c r="AL60" s="5"/>
       <c r="AM60" s="5"/>
       <c r="AN60" s="5"/>
-      <c r="AO60" s="8" t="s">
+      <c r="AO60" t="s" s="8">
         <v>73</v>
       </c>
       <c r="AP60" s="7"/>
     </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="61">
+      <c r="B61" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" t="s" s="10">
         <v>62</v>
       </c>
       <c r="D61" s="9"/>
@@ -3199,7 +3152,7 @@
         <v>25</v>
       </c>
       <c r="J61" s="11"/>
-      <c r="L61" s="2" t="s">
+      <c r="L61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="M61" s="4"/>
@@ -3209,7 +3162,7 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="3"/>
-      <c r="Z61" s="2" t="s">
+      <c r="Z61" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AA61" s="4"/>
@@ -3220,8 +3173,8 @@
       <c r="AF61" s="4"/>
       <c r="AG61" s="3"/>
     </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="L62" s="6" t="s">
+    <row r="62">
+      <c r="L62" t="s" s="6">
         <v>60</v>
       </c>
       <c r="M62" s="5"/>
@@ -3229,11 +3182,11 @@
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
-      <c r="R62" s="8" t="s">
+      <c r="R62" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S62" s="7"/>
-      <c r="Z62" s="6" t="s">
+      <c r="Z62" t="s" s="6">
         <v>35</v>
       </c>
       <c r="AA62" s="5"/>
@@ -3241,16 +3194,16 @@
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
-      <c r="AF62" s="8" t="s">
+      <c r="AF62" t="s" s="8">
         <v>25</v>
       </c>
       <c r="AG62" s="7"/>
     </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+    <row r="63">
+      <c r="B63" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E63" s="4"/>
@@ -3293,7 +3246,7 @@
       <c r="AP63" s="4"/>
       <c r="AQ63" s="3"/>
     </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="D64" s="6"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -3335,11 +3288,11 @@
       <c r="AP64" s="8"/>
       <c r="AQ64" s="7"/>
     </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="65">
+      <c r="B65" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="L65" s="10" t="s">
+      <c r="L65" t="s" s="10">
         <v>64</v>
       </c>
       <c r="M65" s="9"/>
@@ -3349,7 +3302,7 @@
       <c r="Q65" s="9"/>
       <c r="R65" s="12"/>
       <c r="S65" s="11"/>
-      <c r="Z65" s="10" t="s">
+      <c r="Z65" t="s" s="10">
         <v>51</v>
       </c>
       <c r="AA65" s="9"/>
@@ -3362,58 +3315,96 @@
       </c>
       <c r="AG65" s="11"/>
     </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B67">
-        <v>41</v>
-      </c>
-      <c r="D67" t="s">
+    <row r="66"/>
+    <row r="67">
+      <c r="B67" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H67" t="s">
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L67" t="s">
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="P67" t="s">
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="T67" t="s">
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="X67" t="s">
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="Y67" s="19"/>
+      <c r="Z67" s="19"/>
+      <c r="AA67" s="19"/>
+      <c r="AB67" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AF67" t="s">
+      <c r="AC67" s="19"/>
+      <c r="AD67" s="19"/>
+      <c r="AE67" s="19"/>
+      <c r="AF67" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AJ67" t="s">
+      <c r="AG67" s="19"/>
+      <c r="AH67" s="19"/>
+      <c r="AI67" s="19"/>
+      <c r="AJ67" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AN67" t="s">
+      <c r="AK67" s="19"/>
+      <c r="AL67" s="19"/>
+      <c r="AM67" s="19"/>
+      <c r="AN67" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AR67" t="s">
+      <c r="AO67" s="19"/>
+      <c r="AP67" s="19"/>
+      <c r="AQ67" s="19"/>
+      <c r="AR67" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AV67" t="s">
+      <c r="AS67" s="19"/>
+      <c r="AT67" s="19"/>
+      <c r="AU67" s="19"/>
+      <c r="AV67" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AZ67" t="s">
+      <c r="AW67" s="19"/>
+      <c r="AX67" s="19"/>
+      <c r="AY67" s="19"/>
+      <c r="AZ67" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>45572</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="68">
+      <c r="A68" t="n" s="1">
+        <v>45572.0</v>
+      </c>
+      <c r="B68" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D68" s="4"/>
@@ -3423,7 +3414,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="3"/>
-      <c r="L68" s="2" t="s">
+      <c r="L68" t="s" s="2">
         <v>34</v>
       </c>
       <c r="M68" s="4"/>
@@ -3433,7 +3424,7 @@
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="3"/>
-      <c r="Z68" s="10" t="s">
+      <c r="Z68" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA68" s="9"/>
@@ -3445,7 +3436,7 @@
         <v>38</v>
       </c>
       <c r="AG68" s="11"/>
-      <c r="AI68" s="10" t="s">
+      <c r="AI68" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AJ68" s="9"/>
@@ -3458,8 +3449,8 @@
       </c>
       <c r="AP68" s="11"/>
     </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C69" s="6" t="s">
+    <row r="69">
+      <c r="C69" t="s" s="6">
         <v>30</v>
       </c>
       <c r="D69" s="5"/>
@@ -3467,11 +3458,11 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="8" t="s">
+      <c r="I69" t="s" s="8">
         <v>18</v>
       </c>
       <c r="J69" s="7"/>
-      <c r="L69" s="6" t="s">
+      <c r="L69" t="s" s="6">
         <v>40</v>
       </c>
       <c r="M69" s="5"/>
@@ -3479,11 +3470,11 @@
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
-      <c r="R69" s="8" t="s">
+      <c r="R69" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S69" s="7"/>
-      <c r="AI69" s="10" t="s">
+      <c r="AI69" t="s" s="10">
         <v>51</v>
       </c>
       <c r="AJ69" s="9"/>
@@ -3496,11 +3487,11 @@
       </c>
       <c r="AP69" s="11"/>
     </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+    <row r="70">
+      <c r="B70" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" t="s" s="10">
         <v>41</v>
       </c>
       <c r="D70" s="9"/>
@@ -3512,7 +3503,7 @@
         <v>75</v>
       </c>
       <c r="J70" s="11"/>
-      <c r="L70" s="10" t="s">
+      <c r="L70" t="s" s="10">
         <v>51</v>
       </c>
       <c r="M70" s="9"/>
@@ -3524,7 +3515,7 @@
         <v>78</v>
       </c>
       <c r="S70" s="11"/>
-      <c r="Z70" s="10" t="s">
+      <c r="Z70" t="s" s="10">
         <v>54</v>
       </c>
       <c r="AA70" s="9"/>
@@ -3536,7 +3527,7 @@
         <v>18</v>
       </c>
       <c r="AG70" s="11"/>
-      <c r="AI70" s="10" t="s">
+      <c r="AI70" t="s" s="10">
         <v>55</v>
       </c>
       <c r="AJ70" s="9"/>
@@ -3549,8 +3540,8 @@
       </c>
       <c r="AP70" s="11"/>
     </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C71" s="10" t="s">
+    <row r="71">
+      <c r="C71" t="s" s="10">
         <v>56</v>
       </c>
       <c r="D71" s="9"/>
@@ -3562,7 +3553,7 @@
         <v>49</v>
       </c>
       <c r="J71" s="11"/>
-      <c r="L71" s="10" t="s">
+      <c r="L71" t="s" s="10">
         <v>66</v>
       </c>
       <c r="M71" s="9"/>
@@ -3574,7 +3565,7 @@
         <v>49</v>
       </c>
       <c r="S71" s="11"/>
-      <c r="Z71" s="10" t="s">
+      <c r="Z71" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA71" s="9"/>
@@ -3586,7 +3577,7 @@
         <v>32</v>
       </c>
       <c r="AG71" s="11"/>
-      <c r="AI71" s="10" t="s">
+      <c r="AI71" t="s" s="10">
         <v>79</v>
       </c>
       <c r="AJ71" s="9"/>
@@ -3599,11 +3590,11 @@
       </c>
       <c r="AP71" s="11"/>
     </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+    <row r="72">
+      <c r="B72" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="D72" s="4"/>
@@ -3613,7 +3604,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="3"/>
-      <c r="L72" s="10" t="s">
+      <c r="L72" t="s" s="10">
         <v>66</v>
       </c>
       <c r="M72" s="9"/>
@@ -3625,7 +3616,7 @@
         <v>49</v>
       </c>
       <c r="S72" s="11"/>
-      <c r="AI72" s="10" t="s">
+      <c r="AI72" t="s" s="10">
         <v>79</v>
       </c>
       <c r="AJ72" s="9"/>
@@ -3638,8 +3629,8 @@
       </c>
       <c r="AP72" s="11"/>
     </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C73" s="6" t="s">
+    <row r="73">
+      <c r="C73" t="s" s="6">
         <v>81</v>
       </c>
       <c r="D73" s="5"/>
@@ -3647,11 +3638,11 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="8" t="s">
+      <c r="I73" t="s" s="8">
         <v>82</v>
       </c>
       <c r="J73" s="7"/>
-      <c r="L73" s="10" t="s">
+      <c r="L73" t="s" s="10">
         <v>41</v>
       </c>
       <c r="M73" s="9"/>
@@ -3663,7 +3654,7 @@
         <v>75</v>
       </c>
       <c r="S73" s="11"/>
-      <c r="Z73" s="10" t="s">
+      <c r="Z73" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AA73" s="9"/>
@@ -3676,11 +3667,11 @@
       </c>
       <c r="AG73" s="11"/>
     </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+    <row r="74">
+      <c r="B74" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" t="s" s="10">
         <v>83</v>
       </c>
       <c r="D74" s="9"/>
@@ -3692,7 +3683,7 @@
         <v>49</v>
       </c>
       <c r="J74" s="11"/>
-      <c r="L74" s="10" t="s">
+      <c r="L74" t="s" s="10">
         <v>63</v>
       </c>
       <c r="M74" s="9"/>
@@ -3704,7 +3695,7 @@
         <v>49</v>
       </c>
       <c r="S74" s="11"/>
-      <c r="Z74" s="2" t="s">
+      <c r="Z74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA74" s="4"/>
@@ -3724,7 +3715,7 @@
       <c r="AO74" s="4"/>
       <c r="AP74" s="3"/>
     </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="Z75" s="6"/>
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
@@ -3743,11 +3734,11 @@
       <c r="AO75" s="8"/>
       <c r="AP75" s="7"/>
     </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+    <row r="76">
+      <c r="B76" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" t="s" s="10">
         <v>47</v>
       </c>
       <c r="D76" s="9"/>
@@ -3759,7 +3750,7 @@
         <v>49</v>
       </c>
       <c r="J76" s="11"/>
-      <c r="L76" s="10" t="s">
+      <c r="L76" t="s" s="10">
         <v>64</v>
       </c>
       <c r="M76" s="9"/>
@@ -3769,7 +3760,7 @@
       <c r="Q76" s="9"/>
       <c r="R76" s="12"/>
       <c r="S76" s="11"/>
-      <c r="Z76" s="10" t="s">
+      <c r="Z76" t="s" s="10">
         <v>55</v>
       </c>
       <c r="AA76" s="9"/>
@@ -3782,58 +3773,96 @@
       </c>
       <c r="AG76" s="11"/>
     </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B78">
-        <v>42</v>
-      </c>
-      <c r="D78" t="s">
+    <row r="77"/>
+    <row r="78">
+      <c r="B78" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H78" t="s">
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="L78" t="s">
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="P78" t="s">
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="T78" t="s">
+      <c r="Q78" s="20"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="X78" t="s">
+      <c r="U78" s="20"/>
+      <c r="V78" s="20"/>
+      <c r="W78" s="20"/>
+      <c r="X78" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="Y78" s="20"/>
+      <c r="Z78" s="20"/>
+      <c r="AA78" s="20"/>
+      <c r="AB78" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AF78" t="s">
+      <c r="AC78" s="20"/>
+      <c r="AD78" s="20"/>
+      <c r="AE78" s="20"/>
+      <c r="AF78" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AJ78" t="s">
+      <c r="AG78" s="20"/>
+      <c r="AH78" s="20"/>
+      <c r="AI78" s="20"/>
+      <c r="AJ78" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AN78" t="s">
+      <c r="AK78" s="20"/>
+      <c r="AL78" s="20"/>
+      <c r="AM78" s="20"/>
+      <c r="AN78" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AR78" t="s">
+      <c r="AO78" s="20"/>
+      <c r="AP78" s="20"/>
+      <c r="AQ78" s="20"/>
+      <c r="AR78" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AV78" t="s">
+      <c r="AS78" s="20"/>
+      <c r="AT78" s="20"/>
+      <c r="AU78" s="20"/>
+      <c r="AV78" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AZ78" t="s">
+      <c r="AW78" s="20"/>
+      <c r="AX78" s="20"/>
+      <c r="AY78" s="20"/>
+      <c r="AZ78" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>45579</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="79">
+      <c r="A79" t="n" s="1">
+        <v>45579.0</v>
+      </c>
+      <c r="B79" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="D79" s="4"/>
@@ -3843,7 +3872,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="3"/>
-      <c r="L79" s="2" t="s">
+      <c r="L79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="M79" s="4"/>
@@ -3853,7 +3882,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="3"/>
-      <c r="Z79" s="10" t="s">
+      <c r="Z79" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA79" s="9"/>
@@ -3865,7 +3894,7 @@
         <v>38</v>
       </c>
       <c r="AG79" s="11"/>
-      <c r="AI79" s="2" t="s">
+      <c r="AI79" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AJ79" s="4"/>
@@ -3876,8 +3905,8 @@
       <c r="AO79" s="4"/>
       <c r="AP79" s="3"/>
     </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C80" s="6" t="s">
+    <row r="80">
+      <c r="C80" t="s" s="6">
         <v>22</v>
       </c>
       <c r="D80" s="5"/>
@@ -3885,11 +3914,11 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
-      <c r="I80" s="8" t="s">
+      <c r="I80" t="s" s="8">
         <v>75</v>
       </c>
       <c r="J80" s="7"/>
-      <c r="L80" s="6" t="s">
+      <c r="L80" t="s" s="6">
         <v>81</v>
       </c>
       <c r="M80" s="5"/>
@@ -3897,11 +3926,11 @@
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
-      <c r="R80" s="8" t="s">
+      <c r="R80" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S80" s="7"/>
-      <c r="AI80" s="6" t="s">
+      <c r="AI80" t="s" s="6">
         <v>87</v>
       </c>
       <c r="AJ80" s="5"/>
@@ -3909,16 +3938,16 @@
       <c r="AL80" s="5"/>
       <c r="AM80" s="5"/>
       <c r="AN80" s="5"/>
-      <c r="AO80" s="8" t="s">
+      <c r="AO80" t="s" s="8">
         <v>25</v>
       </c>
       <c r="AP80" s="7"/>
     </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
+    <row r="81">
+      <c r="B81" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" t="s" s="10">
         <v>88</v>
       </c>
       <c r="D81" s="9"/>
@@ -3930,7 +3959,7 @@
         <v>75</v>
       </c>
       <c r="J81" s="11"/>
-      <c r="Z81" s="10" t="s">
+      <c r="Z81" t="s" s="10">
         <v>54</v>
       </c>
       <c r="AA81" s="9"/>
@@ -3943,8 +3972,8 @@
       </c>
       <c r="AG81" s="11"/>
     </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C82" s="10" t="s">
+    <row r="82">
+      <c r="C82" t="s" s="10">
         <v>56</v>
       </c>
       <c r="D82" s="9"/>
@@ -3956,7 +3985,7 @@
         <v>49</v>
       </c>
       <c r="J82" s="11"/>
-      <c r="L82" s="10" t="s">
+      <c r="L82" t="s" s="10">
         <v>45</v>
       </c>
       <c r="M82" s="9"/>
@@ -3968,7 +3997,7 @@
         <v>75</v>
       </c>
       <c r="S82" s="11"/>
-      <c r="Z82" s="10" t="s">
+      <c r="Z82" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA82" s="9"/>
@@ -3980,7 +4009,7 @@
         <v>32</v>
       </c>
       <c r="AG82" s="11"/>
-      <c r="AI82" s="10" t="s">
+      <c r="AI82" t="s" s="10">
         <v>79</v>
       </c>
       <c r="AJ82" s="9"/>
@@ -3993,11 +4022,11 @@
       </c>
       <c r="AP82" s="11"/>
     </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+    <row r="83">
+      <c r="B83" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" t="s" s="2">
         <v>90</v>
       </c>
       <c r="D83" s="4"/>
@@ -4007,7 +4036,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="3"/>
-      <c r="L83" s="2" t="s">
+      <c r="L83" t="s" s="2">
         <v>19</v>
       </c>
       <c r="M83" s="4"/>
@@ -4017,7 +4046,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="3"/>
-      <c r="AI83" s="10" t="s">
+      <c r="AI83" t="s" s="10">
         <v>79</v>
       </c>
       <c r="AJ83" s="9"/>
@@ -4030,8 +4059,8 @@
       </c>
       <c r="AP83" s="11"/>
     </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C84" s="6" t="s">
+    <row r="84">
+      <c r="C84" t="s" s="6">
         <v>35</v>
       </c>
       <c r="D84" s="5"/>
@@ -4039,11 +4068,11 @@
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="8" t="s">
+      <c r="I84" t="s" s="8">
         <v>18</v>
       </c>
       <c r="J84" s="7"/>
-      <c r="L84" s="6" t="s">
+      <c r="L84" t="s" s="6">
         <v>60</v>
       </c>
       <c r="M84" s="5"/>
@@ -4051,11 +4080,11 @@
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
-      <c r="R84" s="8" t="s">
+      <c r="R84" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S84" s="7"/>
-      <c r="Z84" s="10" t="s">
+      <c r="Z84" t="s" s="10">
         <v>91</v>
       </c>
       <c r="AA84" s="9"/>
@@ -4067,7 +4096,7 @@
         <v>75</v>
       </c>
       <c r="AG84" s="11"/>
-      <c r="AI84" s="10" t="s">
+      <c r="AI84" t="s" s="10">
         <v>92</v>
       </c>
       <c r="AJ84" s="9"/>
@@ -4080,11 +4109,11 @@
       </c>
       <c r="AP84" s="11"/>
     </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+    <row r="85">
+      <c r="B85" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" t="s" s="10">
         <v>62</v>
       </c>
       <c r="D85" s="9"/>
@@ -4096,7 +4125,7 @@
         <v>49</v>
       </c>
       <c r="J85" s="11"/>
-      <c r="L85" s="10" t="s">
+      <c r="L85" t="s" s="10">
         <v>63</v>
       </c>
       <c r="M85" s="9"/>
@@ -4108,7 +4137,7 @@
         <v>49</v>
       </c>
       <c r="S85" s="11"/>
-      <c r="Z85" s="2" t="s">
+      <c r="Z85" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA85" s="4"/>
@@ -4128,7 +4157,7 @@
       <c r="AO85" s="4"/>
       <c r="AP85" s="3"/>
     </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="Z86" s="6"/>
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
@@ -4147,11 +4176,11 @@
       <c r="AO86" s="8"/>
       <c r="AP86" s="7"/>
     </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
+    <row r="87">
+      <c r="B87" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" t="s" s="10">
         <v>55</v>
       </c>
       <c r="D87" s="9"/>
@@ -4163,7 +4192,7 @@
         <v>18</v>
       </c>
       <c r="J87" s="11"/>
-      <c r="L87" s="10" t="s">
+      <c r="L87" t="s" s="10">
         <v>64</v>
       </c>
       <c r="M87" s="9"/>
@@ -4173,7 +4202,7 @@
       <c r="Q87" s="9"/>
       <c r="R87" s="12"/>
       <c r="S87" s="11"/>
-      <c r="Z87" s="10" t="s">
+      <c r="Z87" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AA87" s="9"/>
@@ -4186,58 +4215,96 @@
       </c>
       <c r="AG87" s="11"/>
     </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B89">
-        <v>43</v>
-      </c>
-      <c r="D89" t="s">
+    <row r="88"/>
+    <row r="89">
+      <c r="B89" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H89" t="s">
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="L89" t="s">
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="P89" t="s">
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="T89" t="s">
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="X89" t="s">
+      <c r="U89" s="21"/>
+      <c r="V89" s="21"/>
+      <c r="W89" s="21"/>
+      <c r="X89" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="Y89" s="21"/>
+      <c r="Z89" s="21"/>
+      <c r="AA89" s="21"/>
+      <c r="AB89" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AF89" t="s">
+      <c r="AC89" s="21"/>
+      <c r="AD89" s="21"/>
+      <c r="AE89" s="21"/>
+      <c r="AF89" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AJ89" t="s">
+      <c r="AG89" s="21"/>
+      <c r="AH89" s="21"/>
+      <c r="AI89" s="21"/>
+      <c r="AJ89" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AN89" t="s">
+      <c r="AK89" s="21"/>
+      <c r="AL89" s="21"/>
+      <c r="AM89" s="21"/>
+      <c r="AN89" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AR89" t="s">
+      <c r="AO89" s="21"/>
+      <c r="AP89" s="21"/>
+      <c r="AQ89" s="21"/>
+      <c r="AR89" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AV89" t="s">
+      <c r="AS89" s="21"/>
+      <c r="AT89" s="21"/>
+      <c r="AU89" s="21"/>
+      <c r="AV89" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AZ89" t="s">
+      <c r="AW89" s="21"/>
+      <c r="AX89" s="21"/>
+      <c r="AY89" s="21"/>
+      <c r="AZ89" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>45586</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="90">
+      <c r="A90" t="n" s="1">
+        <v>45586.0</v>
+      </c>
+      <c r="B90" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" t="s" s="2">
         <v>93</v>
       </c>
       <c r="D90" s="4"/>
@@ -4247,7 +4314,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="3"/>
-      <c r="L90" s="2" t="s">
+      <c r="L90" t="s" s="2">
         <v>34</v>
       </c>
       <c r="M90" s="4"/>
@@ -4257,7 +4324,7 @@
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
       <c r="S90" s="3"/>
-      <c r="Z90" s="10" t="s">
+      <c r="Z90" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA90" s="9"/>
@@ -4269,7 +4336,7 @@
         <v>38</v>
       </c>
       <c r="AG90" s="11"/>
-      <c r="AI90" s="2" t="s">
+      <c r="AI90" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AJ90" s="4"/>
@@ -4280,8 +4347,8 @@
       <c r="AO90" s="4"/>
       <c r="AP90" s="3"/>
     </row>
-    <row r="91" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C91" s="6" t="s">
+    <row r="91">
+      <c r="C91" t="s" s="6">
         <v>30</v>
       </c>
       <c r="D91" s="5"/>
@@ -4289,11 +4356,11 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
-      <c r="I91" s="8" t="s">
+      <c r="I91" t="s" s="8">
         <v>18</v>
       </c>
       <c r="J91" s="7"/>
-      <c r="L91" s="6" t="s">
+      <c r="L91" t="s" s="6">
         <v>42</v>
       </c>
       <c r="M91" s="5"/>
@@ -4301,11 +4368,11 @@
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
-      <c r="R91" s="8" t="s">
+      <c r="R91" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S91" s="7"/>
-      <c r="Z91" s="10" t="s">
+      <c r="Z91" t="s" s="10">
         <v>94</v>
       </c>
       <c r="AA91" s="9"/>
@@ -4317,7 +4384,7 @@
         <v>75</v>
       </c>
       <c r="AG91" s="11"/>
-      <c r="AI91" s="6" t="s">
+      <c r="AI91" t="s" s="6">
         <v>87</v>
       </c>
       <c r="AJ91" s="5"/>
@@ -4325,16 +4392,16 @@
       <c r="AL91" s="5"/>
       <c r="AM91" s="5"/>
       <c r="AN91" s="5"/>
-      <c r="AO91" s="8" t="s">
+      <c r="AO91" t="s" s="8">
         <v>18</v>
       </c>
       <c r="AP91" s="7"/>
     </row>
-    <row r="92" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
+    <row r="92">
+      <c r="B92" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L92" s="10" t="s">
+      <c r="L92" t="s" s="10">
         <v>88</v>
       </c>
       <c r="M92" s="9"/>
@@ -4346,7 +4413,7 @@
         <v>75</v>
       </c>
       <c r="S92" s="11"/>
-      <c r="Z92" s="10" t="s">
+      <c r="Z92" t="s" s="10">
         <v>54</v>
       </c>
       <c r="AA92" s="9"/>
@@ -4358,7 +4425,7 @@
         <v>18</v>
       </c>
       <c r="AG92" s="11"/>
-      <c r="AI92" s="10" t="s">
+      <c r="AI92" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AJ92" s="9"/>
@@ -4371,8 +4438,8 @@
       </c>
       <c r="AP92" s="11"/>
     </row>
-    <row r="93" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C93" s="10" t="s">
+    <row r="93">
+      <c r="C93" t="s" s="10">
         <v>95</v>
       </c>
       <c r="D93" s="9"/>
@@ -4384,7 +4451,7 @@
         <v>49</v>
       </c>
       <c r="J93" s="11"/>
-      <c r="L93" s="10" t="s">
+      <c r="L93" t="s" s="10">
         <v>96</v>
       </c>
       <c r="M93" s="9"/>
@@ -4396,7 +4463,7 @@
         <v>97</v>
       </c>
       <c r="S93" s="11"/>
-      <c r="Z93" s="10" t="s">
+      <c r="Z93" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA93" s="9"/>
@@ -4408,7 +4475,7 @@
         <v>32</v>
       </c>
       <c r="AG93" s="11"/>
-      <c r="AI93" s="10" t="s">
+      <c r="AI93" t="s" s="10">
         <v>79</v>
       </c>
       <c r="AJ93" s="9"/>
@@ -4421,11 +4488,11 @@
       </c>
       <c r="AP93" s="11"/>
     </row>
-    <row r="94" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
+    <row r="94">
+      <c r="B94" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" t="s" s="10">
         <v>83</v>
       </c>
       <c r="D94" s="9"/>
@@ -4437,7 +4504,7 @@
         <v>49</v>
       </c>
       <c r="J94" s="11"/>
-      <c r="L94" s="10" t="s">
+      <c r="L94" t="s" s="10">
         <v>96</v>
       </c>
       <c r="M94" s="9"/>
@@ -4449,7 +4516,7 @@
         <v>49</v>
       </c>
       <c r="S94" s="11"/>
-      <c r="AI94" s="10" t="s">
+      <c r="AI94" t="s" s="10">
         <v>79</v>
       </c>
       <c r="AJ94" s="9"/>
@@ -4462,8 +4529,8 @@
       </c>
       <c r="AP94" s="11"/>
     </row>
-    <row r="95" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="L95" s="10" t="s">
+    <row r="95">
+      <c r="L95" t="s" s="10">
         <v>92</v>
       </c>
       <c r="M95" s="9"/>
@@ -4475,7 +4542,7 @@
         <v>75</v>
       </c>
       <c r="S95" s="11"/>
-      <c r="Z95" s="10" t="s">
+      <c r="Z95" t="s" s="10">
         <v>91</v>
       </c>
       <c r="AA95" s="9"/>
@@ -4487,7 +4554,7 @@
         <v>75</v>
       </c>
       <c r="AG95" s="11"/>
-      <c r="AI95" s="10" t="s">
+      <c r="AI95" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AJ95" s="9"/>
@@ -4500,11 +4567,11 @@
       </c>
       <c r="AP95" s="11"/>
     </row>
-    <row r="96" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
+    <row r="96">
+      <c r="B96" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" t="s" s="10">
         <v>62</v>
       </c>
       <c r="D96" s="9"/>
@@ -4516,7 +4583,7 @@
         <v>49</v>
       </c>
       <c r="J96" s="11"/>
-      <c r="L96" s="10" t="s">
+      <c r="L96" t="s" s="10">
         <v>63</v>
       </c>
       <c r="M96" s="9"/>
@@ -4528,7 +4595,7 @@
         <v>49</v>
       </c>
       <c r="S96" s="11"/>
-      <c r="Z96" s="2" t="s">
+      <c r="Z96" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA96" s="4"/>
@@ -4548,7 +4615,7 @@
       <c r="AO96" s="4"/>
       <c r="AP96" s="3"/>
     </row>
-    <row r="97" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="Z97" s="6"/>
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
@@ -4567,11 +4634,11 @@
       <c r="AO97" s="8"/>
       <c r="AP97" s="7"/>
     </row>
-    <row r="98" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+    <row r="98">
+      <c r="B98" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C98" t="s" s="10">
         <v>47</v>
       </c>
       <c r="D98" s="9"/>
@@ -4583,7 +4650,7 @@
         <v>98</v>
       </c>
       <c r="J98" s="11"/>
-      <c r="L98" s="10" t="s">
+      <c r="L98" t="s" s="10">
         <v>64</v>
       </c>
       <c r="M98" s="9"/>
@@ -4593,7 +4660,7 @@
       <c r="Q98" s="9"/>
       <c r="R98" s="12"/>
       <c r="S98" s="11"/>
-      <c r="Z98" s="10" t="s">
+      <c r="Z98" t="s" s="10">
         <v>95</v>
       </c>
       <c r="AA98" s="9"/>
@@ -4606,130 +4673,210 @@
       </c>
       <c r="AG98" s="11"/>
     </row>
-    <row r="100" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B100">
-        <v>44</v>
-      </c>
-      <c r="D100" t="s">
+    <row r="99"/>
+    <row r="100">
+      <c r="B100" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H100" t="s">
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="L100" t="s">
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="P100" t="s">
+      <c r="M100" s="22"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="T100" t="s">
+      <c r="Q100" s="22"/>
+      <c r="R100" s="22"/>
+      <c r="S100" s="22"/>
+      <c r="T100" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="X100" t="s">
+      <c r="U100" s="22"/>
+      <c r="V100" s="22"/>
+      <c r="W100" s="22"/>
+      <c r="X100" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AB100" t="s">
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="22"/>
+      <c r="AA100" s="22"/>
+      <c r="AB100" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AF100" t="s">
+      <c r="AC100" s="22"/>
+      <c r="AD100" s="22"/>
+      <c r="AE100" s="22"/>
+      <c r="AF100" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AJ100" t="s">
+      <c r="AG100" s="22"/>
+      <c r="AH100" s="22"/>
+      <c r="AI100" s="22"/>
+      <c r="AJ100" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AN100" t="s">
+      <c r="AK100" s="22"/>
+      <c r="AL100" s="22"/>
+      <c r="AM100" s="22"/>
+      <c r="AN100" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AR100" t="s">
+      <c r="AO100" s="22"/>
+      <c r="AP100" s="22"/>
+      <c r="AQ100" s="22"/>
+      <c r="AR100" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AV100" t="s">
+      <c r="AS100" s="22"/>
+      <c r="AT100" s="22"/>
+      <c r="AU100" s="22"/>
+      <c r="AV100" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AZ100" t="s">
+      <c r="AW100" s="22"/>
+      <c r="AX100" s="22"/>
+      <c r="AY100" s="22"/>
+      <c r="AZ100" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>45593</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="101">
+      <c r="A101" t="n" s="1">
+        <v>45593.0</v>
+      </c>
+      <c r="B101" t="s" s="0">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+    <row r="102"/>
+    <row r="103">
+      <c r="B103" t="s" s="0">
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
+    <row r="104"/>
+    <row r="105">
+      <c r="B105" t="s" s="0">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
+    <row r="106"/>
+    <row r="107">
+      <c r="B107" t="s" s="0">
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
+    <row r="108"/>
+    <row r="109">
+      <c r="B109" t="s" s="0">
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B111">
-        <v>45</v>
-      </c>
-      <c r="D111" t="s">
+    <row r="110"/>
+    <row r="111">
+      <c r="B111" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H111" t="s">
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="L111" t="s">
+      <c r="I111" s="23"/>
+      <c r="J111" s="23"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="P111" t="s">
+      <c r="M111" s="23"/>
+      <c r="N111" s="23"/>
+      <c r="O111" s="23"/>
+      <c r="P111" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="T111" t="s">
+      <c r="Q111" s="23"/>
+      <c r="R111" s="23"/>
+      <c r="S111" s="23"/>
+      <c r="T111" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="X111" t="s">
+      <c r="U111" s="23"/>
+      <c r="V111" s="23"/>
+      <c r="W111" s="23"/>
+      <c r="X111" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AB111" t="s">
+      <c r="Y111" s="23"/>
+      <c r="Z111" s="23"/>
+      <c r="AA111" s="23"/>
+      <c r="AB111" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AF111" t="s">
+      <c r="AC111" s="23"/>
+      <c r="AD111" s="23"/>
+      <c r="AE111" s="23"/>
+      <c r="AF111" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AJ111" t="s">
+      <c r="AG111" s="23"/>
+      <c r="AH111" s="23"/>
+      <c r="AI111" s="23"/>
+      <c r="AJ111" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AN111" t="s">
+      <c r="AK111" s="23"/>
+      <c r="AL111" s="23"/>
+      <c r="AM111" s="23"/>
+      <c r="AN111" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AR111" t="s">
+      <c r="AO111" s="23"/>
+      <c r="AP111" s="23"/>
+      <c r="AQ111" s="23"/>
+      <c r="AR111" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AV111" t="s">
+      <c r="AS111" s="23"/>
+      <c r="AT111" s="23"/>
+      <c r="AU111" s="23"/>
+      <c r="AV111" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AZ111" t="s">
+      <c r="AW111" s="23"/>
+      <c r="AX111" s="23"/>
+      <c r="AY111" s="23"/>
+      <c r="AZ111" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>45600</v>
-      </c>
-      <c r="B112" t="s">
+    <row r="112">
+      <c r="A112" t="n" s="1">
+        <v>45600.0</v>
+      </c>
+      <c r="B112" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" t="s" s="2">
         <v>21</v>
       </c>
       <c r="D112" s="4"/>
@@ -4739,7 +4886,7 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="3"/>
-      <c r="L112" s="2" t="s">
+      <c r="L112" t="s" s="2">
         <v>100</v>
       </c>
       <c r="M112" s="4"/>
@@ -4749,7 +4896,7 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
       <c r="S112" s="3"/>
-      <c r="Z112" s="10" t="s">
+      <c r="Z112" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA112" s="9"/>
@@ -4761,7 +4908,7 @@
         <v>38</v>
       </c>
       <c r="AG112" s="11"/>
-      <c r="AI112" s="2" t="s">
+      <c r="AI112" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AJ112" s="4"/>
@@ -4772,8 +4919,8 @@
       <c r="AO112" s="4"/>
       <c r="AP112" s="3"/>
     </row>
-    <row r="113" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C113" s="6" t="s">
+    <row r="113">
+      <c r="C113" t="s" s="6">
         <v>22</v>
       </c>
       <c r="D113" s="5"/>
@@ -4781,11 +4928,11 @@
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
-      <c r="I113" s="8" t="s">
+      <c r="I113" t="s" s="8">
         <v>99</v>
       </c>
       <c r="J113" s="7"/>
-      <c r="L113" s="6" t="s">
+      <c r="L113" t="s" s="6">
         <v>40</v>
       </c>
       <c r="M113" s="5"/>
@@ -4793,11 +4940,11 @@
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
-      <c r="R113" s="8" t="s">
+      <c r="R113" t="s" s="8">
         <v>101</v>
       </c>
       <c r="S113" s="7"/>
-      <c r="Z113" s="10" t="s">
+      <c r="Z113" t="s" s="10">
         <v>91</v>
       </c>
       <c r="AA113" s="9"/>
@@ -4809,7 +4956,7 @@
         <v>75</v>
       </c>
       <c r="AG113" s="11"/>
-      <c r="AI113" s="6" t="s">
+      <c r="AI113" t="s" s="6">
         <v>87</v>
       </c>
       <c r="AJ113" s="5"/>
@@ -4817,16 +4964,16 @@
       <c r="AL113" s="5"/>
       <c r="AM113" s="5"/>
       <c r="AN113" s="5"/>
-      <c r="AO113" s="8" t="s">
+      <c r="AO113" t="s" s="8">
         <v>78</v>
       </c>
       <c r="AP113" s="7"/>
     </row>
-    <row r="114" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
+    <row r="114">
+      <c r="B114" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" t="s" s="10">
         <v>47</v>
       </c>
       <c r="D114" s="9"/>
@@ -4838,7 +4985,7 @@
         <v>75</v>
       </c>
       <c r="J114" s="11"/>
-      <c r="L114" s="10" t="s">
+      <c r="L114" t="s" s="10">
         <v>102</v>
       </c>
       <c r="M114" s="9"/>
@@ -4850,7 +4997,7 @@
         <v>103</v>
       </c>
       <c r="S114" s="11"/>
-      <c r="Z114" s="10" t="s">
+      <c r="Z114" t="s" s="10">
         <v>54</v>
       </c>
       <c r="AA114" s="9"/>
@@ -4862,7 +5009,7 @@
         <v>49</v>
       </c>
       <c r="AG114" s="11"/>
-      <c r="AI114" s="10" t="s">
+      <c r="AI114" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AJ114" s="9"/>
@@ -4875,8 +5022,8 @@
       </c>
       <c r="AP114" s="11"/>
     </row>
-    <row r="115" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C115" s="10" t="s">
+    <row r="115">
+      <c r="C115" t="s" s="10">
         <v>95</v>
       </c>
       <c r="D115" s="9"/>
@@ -4888,7 +5035,7 @@
         <v>49</v>
       </c>
       <c r="J115" s="11"/>
-      <c r="L115" s="10" t="s">
+      <c r="L115" t="s" s="10">
         <v>96</v>
       </c>
       <c r="M115" s="9"/>
@@ -4900,7 +5047,7 @@
         <v>25</v>
       </c>
       <c r="S115" s="11"/>
-      <c r="Z115" s="10" t="s">
+      <c r="Z115" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA115" s="9"/>
@@ -4912,7 +5059,7 @@
         <v>32</v>
       </c>
       <c r="AG115" s="11"/>
-      <c r="AI115" s="10" t="s">
+      <c r="AI115" t="s" s="10">
         <v>79</v>
       </c>
       <c r="AJ115" s="9"/>
@@ -4925,11 +5072,11 @@
       </c>
       <c r="AP115" s="11"/>
     </row>
-    <row r="116" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
+    <row r="116">
+      <c r="B116" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" t="s" s="2">
         <v>105</v>
       </c>
       <c r="D116" s="4"/>
@@ -4939,7 +5086,7 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="3"/>
-      <c r="L116" s="10" t="s">
+      <c r="L116" t="s" s="10">
         <v>96</v>
       </c>
       <c r="M116" s="9"/>
@@ -4951,7 +5098,7 @@
         <v>25</v>
       </c>
       <c r="S116" s="11"/>
-      <c r="Z116" s="2" t="s">
+      <c r="Z116" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AA116" s="4"/>
@@ -4961,7 +5108,7 @@
       <c r="AE116" s="4"/>
       <c r="AF116" s="4"/>
       <c r="AG116" s="3"/>
-      <c r="AI116" s="10" t="s">
+      <c r="AI116" t="s" s="10">
         <v>79</v>
       </c>
       <c r="AJ116" s="9"/>
@@ -4974,8 +5121,8 @@
       </c>
       <c r="AP116" s="11"/>
     </row>
-    <row r="117" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C117" s="6" t="s">
+    <row r="117">
+      <c r="C117" t="s" s="6">
         <v>22</v>
       </c>
       <c r="D117" s="5"/>
@@ -4983,11 +5130,11 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
-      <c r="I117" s="8" t="s">
+      <c r="I117" t="s" s="8">
         <v>18</v>
       </c>
       <c r="J117" s="7"/>
-      <c r="L117" s="10" t="s">
+      <c r="L117" t="s" s="10">
         <v>108</v>
       </c>
       <c r="M117" s="9"/>
@@ -4999,7 +5146,7 @@
         <v>75</v>
       </c>
       <c r="S117" s="11"/>
-      <c r="Z117" s="6" t="s">
+      <c r="Z117" t="s" s="6">
         <v>107</v>
       </c>
       <c r="AA117" s="5"/>
@@ -5007,11 +5154,11 @@
       <c r="AC117" s="5"/>
       <c r="AD117" s="5"/>
       <c r="AE117" s="5"/>
-      <c r="AF117" s="8" t="s">
+      <c r="AF117" t="s" s="8">
         <v>18</v>
       </c>
       <c r="AG117" s="7"/>
-      <c r="AI117" s="10" t="s">
+      <c r="AI117" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AJ117" s="9"/>
@@ -5024,11 +5171,11 @@
       </c>
       <c r="AP117" s="11"/>
     </row>
-    <row r="118" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
+    <row r="118">
+      <c r="B118" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" t="s" s="10">
         <v>83</v>
       </c>
       <c r="D118" s="9"/>
@@ -5040,7 +5187,7 @@
         <v>25</v>
       </c>
       <c r="J118" s="11"/>
-      <c r="L118" s="10" t="s">
+      <c r="L118" t="s" s="10">
         <v>108</v>
       </c>
       <c r="M118" s="9"/>
@@ -5052,7 +5199,7 @@
         <v>75</v>
       </c>
       <c r="S118" s="11"/>
-      <c r="Z118" s="2" t="s">
+      <c r="Z118" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA118" s="4"/>
@@ -5072,7 +5219,7 @@
       <c r="AO118" s="4"/>
       <c r="AP118" s="3"/>
     </row>
-    <row r="119" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="Z119" s="6"/>
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
@@ -5091,11 +5238,11 @@
       <c r="AO119" s="8"/>
       <c r="AP119" s="7"/>
     </row>
-    <row r="120" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
+    <row r="120">
+      <c r="B120" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="L120" s="10" t="s">
+      <c r="L120" t="s" s="10">
         <v>64</v>
       </c>
       <c r="M120" s="9"/>
@@ -5105,7 +5252,7 @@
       <c r="Q120" s="9"/>
       <c r="R120" s="12"/>
       <c r="S120" s="11"/>
-      <c r="Z120" s="10" t="s">
+      <c r="Z120" t="s" s="10">
         <v>95</v>
       </c>
       <c r="AA120" s="9"/>
@@ -5118,8 +5265,8 @@
       </c>
       <c r="AG120" s="11"/>
     </row>
-    <row r="121" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="AI121" s="10" t="s">
+    <row r="121">
+      <c r="AI121" t="s" s="10">
         <v>109</v>
       </c>
       <c r="AJ121" s="9"/>
@@ -5134,63 +5281,101 @@
       </c>
       <c r="AR121" s="11"/>
     </row>
-    <row r="122" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B122">
-        <v>46</v>
-      </c>
-      <c r="D122" t="s">
+    <row r="122">
+      <c r="B122" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H122" t="s">
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="L122" t="s">
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="P122" t="s">
+      <c r="M122" s="24"/>
+      <c r="N122" s="24"/>
+      <c r="O122" s="24"/>
+      <c r="P122" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="T122" t="s">
+      <c r="Q122" s="24"/>
+      <c r="R122" s="24"/>
+      <c r="S122" s="24"/>
+      <c r="T122" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="X122" t="s">
+      <c r="U122" s="24"/>
+      <c r="V122" s="24"/>
+      <c r="W122" s="24"/>
+      <c r="X122" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AB122" t="s">
+      <c r="Y122" s="24"/>
+      <c r="Z122" s="24"/>
+      <c r="AA122" s="24"/>
+      <c r="AB122" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AF122" t="s">
+      <c r="AC122" s="24"/>
+      <c r="AD122" s="24"/>
+      <c r="AE122" s="24"/>
+      <c r="AF122" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AJ122" t="s">
+      <c r="AG122" s="24"/>
+      <c r="AH122" s="24"/>
+      <c r="AI122" s="24"/>
+      <c r="AJ122" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AN122" t="s">
+      <c r="AK122" s="24"/>
+      <c r="AL122" s="24"/>
+      <c r="AM122" s="24"/>
+      <c r="AN122" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="AR122" t="s">
+      <c r="AO122" s="24"/>
+      <c r="AP122" s="24"/>
+      <c r="AQ122" s="24"/>
+      <c r="AR122" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AV122" t="s">
+      <c r="AS122" s="24"/>
+      <c r="AT122" s="24"/>
+      <c r="AU122" s="24"/>
+      <c r="AV122" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AZ122" t="s">
+      <c r="AW122" s="24"/>
+      <c r="AX122" s="24"/>
+      <c r="AY122" s="24"/>
+      <c r="AZ122" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
-        <v>45607</v>
-      </c>
-      <c r="B123" t="s">
+    <row r="123">
+      <c r="A123" t="n" s="1">
+        <v>45607.0</v>
+      </c>
+      <c r="B123" t="s" s="0">
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
+    <row r="124"/>
+    <row r="125">
+      <c r="B125" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" t="s" s="10">
         <v>88</v>
       </c>
       <c r="D125" s="9"/>
@@ -5202,7 +5387,7 @@
         <v>75</v>
       </c>
       <c r="J125" s="11"/>
-      <c r="L125" s="10" t="s">
+      <c r="L125" t="s" s="10">
         <v>102</v>
       </c>
       <c r="M125" s="9"/>
@@ -5214,7 +5399,7 @@
         <v>110</v>
       </c>
       <c r="S125" s="11"/>
-      <c r="Z125" s="10" t="s">
+      <c r="Z125" t="s" s="10">
         <v>54</v>
       </c>
       <c r="AA125" s="9"/>
@@ -5226,7 +5411,7 @@
         <v>18</v>
       </c>
       <c r="AG125" s="11"/>
-      <c r="AI125" s="10" t="s">
+      <c r="AI125" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AJ125" s="9"/>
@@ -5239,8 +5424,8 @@
       </c>
       <c r="AP125" s="11"/>
     </row>
-    <row r="126" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C126" s="10" t="s">
+    <row r="126">
+      <c r="C126" t="s" s="10">
         <v>95</v>
       </c>
       <c r="D126" s="9"/>
@@ -5252,7 +5437,7 @@
         <v>25</v>
       </c>
       <c r="J126" s="11"/>
-      <c r="L126" s="10" t="s">
+      <c r="L126" t="s" s="10">
         <v>91</v>
       </c>
       <c r="M126" s="9"/>
@@ -5264,7 +5449,7 @@
         <v>75</v>
       </c>
       <c r="S126" s="11"/>
-      <c r="Z126" s="10" t="s">
+      <c r="Z126" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA126" s="9"/>
@@ -5276,7 +5461,7 @@
         <v>32</v>
       </c>
       <c r="AG126" s="11"/>
-      <c r="AI126" s="10" t="s">
+      <c r="AI126" t="s" s="10">
         <v>79</v>
       </c>
       <c r="AJ126" s="9"/>
@@ -5289,11 +5474,11 @@
       </c>
       <c r="AP126" s="11"/>
     </row>
-    <row r="127" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
+    <row r="127">
+      <c r="B127" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="L127" s="10" t="s">
+      <c r="L127" t="s" s="10">
         <v>111</v>
       </c>
       <c r="M127" s="9"/>
@@ -5305,7 +5490,7 @@
         <v>25</v>
       </c>
       <c r="S127" s="11"/>
-      <c r="Z127" s="2" t="s">
+      <c r="Z127" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AA127" s="4"/>
@@ -5315,7 +5500,7 @@
       <c r="AE127" s="4"/>
       <c r="AF127" s="4"/>
       <c r="AG127" s="3"/>
-      <c r="AI127" s="10" t="s">
+      <c r="AI127" t="s" s="10">
         <v>79</v>
       </c>
       <c r="AJ127" s="9"/>
@@ -5328,8 +5513,8 @@
       </c>
       <c r="AP127" s="11"/>
     </row>
-    <row r="128" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C128" s="10" t="s">
+    <row r="128">
+      <c r="C128" t="s" s="10">
         <v>92</v>
       </c>
       <c r="D128" s="9"/>
@@ -5341,7 +5526,7 @@
         <v>75</v>
       </c>
       <c r="J128" s="11"/>
-      <c r="L128" s="10" t="s">
+      <c r="L128" t="s" s="10">
         <v>45</v>
       </c>
       <c r="M128" s="9"/>
@@ -5353,7 +5538,7 @@
         <v>75</v>
       </c>
       <c r="S128" s="11"/>
-      <c r="Z128" s="6" t="s">
+      <c r="Z128" t="s" s="6">
         <v>107</v>
       </c>
       <c r="AA128" s="5"/>
@@ -5361,11 +5546,11 @@
       <c r="AC128" s="5"/>
       <c r="AD128" s="5"/>
       <c r="AE128" s="5"/>
-      <c r="AF128" s="8" t="s">
+      <c r="AF128" t="s" s="8">
         <v>25</v>
       </c>
       <c r="AG128" s="7"/>
-      <c r="AI128" s="10" t="s">
+      <c r="AI128" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AJ128" s="9"/>
@@ -5378,11 +5563,11 @@
       </c>
       <c r="AP128" s="11"/>
     </row>
-    <row r="129" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
+    <row r="129">
+      <c r="B129" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="Z129" s="2" t="s">
+      <c r="Z129" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA129" s="4"/>
@@ -5402,8 +5587,8 @@
       <c r="AO129" s="4"/>
       <c r="AP129" s="3"/>
     </row>
-    <row r="130" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="L130" s="10" t="s">
+    <row r="130">
+      <c r="L130" t="s" s="10">
         <v>94</v>
       </c>
       <c r="M130" s="9"/>
@@ -5433,11 +5618,11 @@
       <c r="AO130" s="8"/>
       <c r="AP130" s="7"/>
     </row>
-    <row r="131" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
+    <row r="131">
+      <c r="B131" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" t="s" s="10">
         <v>113</v>
       </c>
       <c r="D131" s="9"/>
@@ -5449,7 +5634,7 @@
         <v>18</v>
       </c>
       <c r="J131" s="11"/>
-      <c r="L131" s="10" t="s">
+      <c r="L131" t="s" s="10">
         <v>64</v>
       </c>
       <c r="M131" s="9"/>
@@ -5459,7 +5644,7 @@
       <c r="Q131" s="9"/>
       <c r="R131" s="12"/>
       <c r="S131" s="11"/>
-      <c r="Z131" s="10" t="s">
+      <c r="Z131" t="s" s="10">
         <v>95</v>
       </c>
       <c r="AA131" s="9"/>
@@ -5472,58 +5657,96 @@
       </c>
       <c r="AG131" s="11"/>
     </row>
-    <row r="133" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B133">
-        <v>47</v>
-      </c>
-      <c r="D133" t="s">
+    <row r="132"/>
+    <row r="133">
+      <c r="B133" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H133" t="s">
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="L133" t="s">
+      <c r="I133" s="25"/>
+      <c r="J133" s="25"/>
+      <c r="K133" s="25"/>
+      <c r="L133" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="P133" t="s">
+      <c r="M133" s="25"/>
+      <c r="N133" s="25"/>
+      <c r="O133" s="25"/>
+      <c r="P133" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="T133" t="s">
+      <c r="Q133" s="25"/>
+      <c r="R133" s="25"/>
+      <c r="S133" s="25"/>
+      <c r="T133" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="X133" t="s">
+      <c r="U133" s="25"/>
+      <c r="V133" s="25"/>
+      <c r="W133" s="25"/>
+      <c r="X133" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AB133" t="s">
+      <c r="Y133" s="25"/>
+      <c r="Z133" s="25"/>
+      <c r="AA133" s="25"/>
+      <c r="AB133" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AF133" t="s">
+      <c r="AC133" s="25"/>
+      <c r="AD133" s="25"/>
+      <c r="AE133" s="25"/>
+      <c r="AF133" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AJ133" t="s">
+      <c r="AG133" s="25"/>
+      <c r="AH133" s="25"/>
+      <c r="AI133" s="25"/>
+      <c r="AJ133" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AN133" t="s">
+      <c r="AK133" s="25"/>
+      <c r="AL133" s="25"/>
+      <c r="AM133" s="25"/>
+      <c r="AN133" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="AR133" t="s">
+      <c r="AO133" s="25"/>
+      <c r="AP133" s="25"/>
+      <c r="AQ133" s="25"/>
+      <c r="AR133" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="AV133" t="s">
+      <c r="AS133" s="25"/>
+      <c r="AT133" s="25"/>
+      <c r="AU133" s="25"/>
+      <c r="AV133" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AZ133" t="s">
+      <c r="AW133" s="25"/>
+      <c r="AX133" s="25"/>
+      <c r="AY133" s="25"/>
+      <c r="AZ133" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>45614</v>
-      </c>
-      <c r="B134" t="s">
+    <row r="134">
+      <c r="A134" t="n" s="1">
+        <v>45614.0</v>
+      </c>
+      <c r="B134" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" t="s" s="2">
         <v>114</v>
       </c>
       <c r="D134" s="4"/>
@@ -5533,7 +5756,7 @@
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="3"/>
-      <c r="L134" s="2" t="s">
+      <c r="L134" t="s" s="2">
         <v>100</v>
       </c>
       <c r="M134" s="4"/>
@@ -5543,7 +5766,7 @@
       <c r="Q134" s="4"/>
       <c r="R134" s="4"/>
       <c r="S134" s="3"/>
-      <c r="Z134" s="10" t="s">
+      <c r="Z134" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA134" s="9"/>
@@ -5555,7 +5778,7 @@
         <v>38</v>
       </c>
       <c r="AG134" s="11"/>
-      <c r="AI134" s="10" t="s">
+      <c r="AI134" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AJ134" s="9"/>
@@ -5568,8 +5791,8 @@
       </c>
       <c r="AP134" s="11"/>
     </row>
-    <row r="135" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C135" s="6" t="s">
+    <row r="135">
+      <c r="C135" t="s" s="6">
         <v>22</v>
       </c>
       <c r="D135" s="5"/>
@@ -5577,11 +5800,11 @@
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
-      <c r="I135" s="8" t="s">
+      <c r="I135" t="s" s="8">
         <v>18</v>
       </c>
       <c r="J135" s="7"/>
-      <c r="L135" s="6" t="s">
+      <c r="L135" t="s" s="6">
         <v>40</v>
       </c>
       <c r="M135" s="5"/>
@@ -5589,11 +5812,11 @@
       <c r="O135" s="5"/>
       <c r="P135" s="5"/>
       <c r="Q135" s="5"/>
-      <c r="R135" s="8" t="s">
+      <c r="R135" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S135" s="7"/>
-      <c r="AI135" s="10" t="s">
+      <c r="AI135" t="s" s="10">
         <v>111</v>
       </c>
       <c r="AJ135" s="9"/>
@@ -5606,11 +5829,11 @@
       </c>
       <c r="AP135" s="11"/>
     </row>
-    <row r="136" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
+    <row r="136">
+      <c r="B136" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" t="s" s="10">
         <v>102</v>
       </c>
       <c r="D136" s="9"/>
@@ -5622,7 +5845,7 @@
         <v>49</v>
       </c>
       <c r="J136" s="11"/>
-      <c r="L136" s="10" t="s">
+      <c r="L136" t="s" s="10">
         <v>95</v>
       </c>
       <c r="M136" s="9"/>
@@ -5634,7 +5857,7 @@
         <v>25</v>
       </c>
       <c r="S136" s="11"/>
-      <c r="Z136" s="10" t="s">
+      <c r="Z136" t="s" s="10">
         <v>54</v>
       </c>
       <c r="AA136" s="9"/>
@@ -5646,7 +5869,7 @@
         <v>18</v>
       </c>
       <c r="AG136" s="11"/>
-      <c r="AI136" s="10" t="s">
+      <c r="AI136" t="s" s="10">
         <v>116</v>
       </c>
       <c r="AJ136" s="9"/>
@@ -5663,8 +5886,8 @@
       </c>
       <c r="AT136" s="11"/>
     </row>
-    <row r="137" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C137" s="10" t="s">
+    <row r="137">
+      <c r="C137" t="s" s="10">
         <v>95</v>
       </c>
       <c r="D137" s="9"/>
@@ -5676,7 +5899,7 @@
         <v>25</v>
       </c>
       <c r="J137" s="11"/>
-      <c r="L137" s="10" t="s">
+      <c r="L137" t="s" s="10">
         <v>45</v>
       </c>
       <c r="M137" s="9"/>
@@ -5688,7 +5911,7 @@
         <v>115</v>
       </c>
       <c r="S137" s="11"/>
-      <c r="Z137" s="10" t="s">
+      <c r="Z137" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA137" s="9"/>
@@ -5700,7 +5923,7 @@
         <v>32</v>
       </c>
       <c r="AG137" s="11"/>
-      <c r="AI137" s="10" t="s">
+      <c r="AI137" t="s" s="10">
         <v>118</v>
       </c>
       <c r="AJ137" s="9"/>
@@ -5717,11 +5940,11 @@
       </c>
       <c r="AT137" s="11"/>
     </row>
-    <row r="138" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
+    <row r="138">
+      <c r="B138" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="L138" s="10" t="s">
+      <c r="L138" t="s" s="10">
         <v>111</v>
       </c>
       <c r="M138" s="9"/>
@@ -5733,7 +5956,7 @@
         <v>25</v>
       </c>
       <c r="S138" s="11"/>
-      <c r="Z138" s="2" t="s">
+      <c r="Z138" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AA138" s="4"/>
@@ -5743,7 +5966,7 @@
       <c r="AE138" s="4"/>
       <c r="AF138" s="4"/>
       <c r="AG138" s="3"/>
-      <c r="AI138" s="10" t="s">
+      <c r="AI138" t="s" s="10">
         <v>118</v>
       </c>
       <c r="AJ138" s="9"/>
@@ -5760,8 +5983,8 @@
       </c>
       <c r="AT138" s="11"/>
     </row>
-    <row r="139" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="H139" s="10" t="s">
+    <row r="139">
+      <c r="H139" t="s" s="10">
         <v>121</v>
       </c>
       <c r="I139" s="9"/>
@@ -5777,7 +6000,7 @@
         <v>117</v>
       </c>
       <c r="S139" s="11"/>
-      <c r="Z139" s="6" t="s">
+      <c r="Z139" t="s" s="6">
         <v>107</v>
       </c>
       <c r="AA139" s="5"/>
@@ -5785,11 +6008,11 @@
       <c r="AC139" s="5"/>
       <c r="AD139" s="5"/>
       <c r="AE139" s="5"/>
-      <c r="AF139" s="8" t="s">
+      <c r="AF139" t="s" s="8">
         <v>18</v>
       </c>
       <c r="AG139" s="7"/>
-      <c r="AI139" s="10" t="s">
+      <c r="AI139" t="s" s="10">
         <v>122</v>
       </c>
       <c r="AJ139" s="9"/>
@@ -5806,11 +6029,11 @@
       </c>
       <c r="AT139" s="11"/>
     </row>
-    <row r="140" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
+    <row r="140">
+      <c r="B140" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C140" t="s" s="10">
         <v>54</v>
       </c>
       <c r="D140" s="9"/>
@@ -5822,7 +6045,7 @@
         <v>25</v>
       </c>
       <c r="J140" s="11"/>
-      <c r="Z140" s="2" t="s">
+      <c r="Z140" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA140" s="4"/>
@@ -5842,7 +6065,7 @@
       <c r="AO140" s="4"/>
       <c r="AP140" s="3"/>
     </row>
-    <row r="141" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="141">
       <c r="Z141" s="6"/>
       <c r="AA141" s="5"/>
       <c r="AB141" s="5"/>
@@ -5861,11 +6084,11 @@
       <c r="AO141" s="8"/>
       <c r="AP141" s="7"/>
     </row>
-    <row r="142" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
+    <row r="142">
+      <c r="B142" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="C142" t="s" s="10">
         <v>47</v>
       </c>
       <c r="D142" s="9"/>
@@ -5877,7 +6100,7 @@
         <v>75</v>
       </c>
       <c r="J142" s="11"/>
-      <c r="L142" s="10" t="s">
+      <c r="L142" t="s" s="10">
         <v>64</v>
       </c>
       <c r="M142" s="9"/>
@@ -5888,58 +6111,96 @@
       <c r="R142" s="12"/>
       <c r="S142" s="11"/>
     </row>
-    <row r="144" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B144">
-        <v>48</v>
-      </c>
-      <c r="D144" t="s">
+    <row r="143"/>
+    <row r="144">
+      <c r="B144" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="C144" s="26"/>
+      <c r="D144" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H144" t="s">
+      <c r="E144" s="26"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="26"/>
+      <c r="H144" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="L144" t="s">
+      <c r="I144" s="26"/>
+      <c r="J144" s="26"/>
+      <c r="K144" s="26"/>
+      <c r="L144" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="P144" t="s">
+      <c r="M144" s="26"/>
+      <c r="N144" s="26"/>
+      <c r="O144" s="26"/>
+      <c r="P144" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="T144" t="s">
+      <c r="Q144" s="26"/>
+      <c r="R144" s="26"/>
+      <c r="S144" s="26"/>
+      <c r="T144" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="X144" t="s">
+      <c r="U144" s="26"/>
+      <c r="V144" s="26"/>
+      <c r="W144" s="26"/>
+      <c r="X144" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AB144" t="s">
+      <c r="Y144" s="26"/>
+      <c r="Z144" s="26"/>
+      <c r="AA144" s="26"/>
+      <c r="AB144" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AF144" t="s">
+      <c r="AC144" s="26"/>
+      <c r="AD144" s="26"/>
+      <c r="AE144" s="26"/>
+      <c r="AF144" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AJ144" t="s">
+      <c r="AG144" s="26"/>
+      <c r="AH144" s="26"/>
+      <c r="AI144" s="26"/>
+      <c r="AJ144" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AN144" t="s">
+      <c r="AK144" s="26"/>
+      <c r="AL144" s="26"/>
+      <c r="AM144" s="26"/>
+      <c r="AN144" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AR144" t="s">
+      <c r="AO144" s="26"/>
+      <c r="AP144" s="26"/>
+      <c r="AQ144" s="26"/>
+      <c r="AR144" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AV144" t="s">
+      <c r="AS144" s="26"/>
+      <c r="AT144" s="26"/>
+      <c r="AU144" s="26"/>
+      <c r="AV144" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AZ144" t="s">
+      <c r="AW144" s="26"/>
+      <c r="AX144" s="26"/>
+      <c r="AY144" s="26"/>
+      <c r="AZ144" s="26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>45621</v>
-      </c>
-      <c r="B145" t="s">
+    <row r="145">
+      <c r="A145" t="n" s="1">
+        <v>45621.0</v>
+      </c>
+      <c r="B145" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L145" s="2" t="s">
+      <c r="L145" t="s" s="2">
         <v>100</v>
       </c>
       <c r="M145" s="4"/>
@@ -5949,7 +6210,7 @@
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
       <c r="S145" s="3"/>
-      <c r="Z145" s="10" t="s">
+      <c r="Z145" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA145" s="9"/>
@@ -5961,7 +6222,7 @@
         <v>38</v>
       </c>
       <c r="AG145" s="11"/>
-      <c r="AI145" s="10" t="s">
+      <c r="AI145" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AJ145" s="9"/>
@@ -5974,8 +6235,8 @@
       </c>
       <c r="AP145" s="11"/>
     </row>
-    <row r="146" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C146" s="10" t="s">
+    <row r="146">
+      <c r="C146" t="s" s="10">
         <v>123</v>
       </c>
       <c r="D146" s="9"/>
@@ -5987,7 +6248,7 @@
         <v>115</v>
       </c>
       <c r="J146" s="11"/>
-      <c r="L146" s="6" t="s">
+      <c r="L146" t="s" s="6">
         <v>40</v>
       </c>
       <c r="M146" s="5"/>
@@ -5995,11 +6256,11 @@
       <c r="O146" s="5"/>
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
-      <c r="R146" s="8" t="s">
+      <c r="R146" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S146" s="7"/>
-      <c r="AI146" s="10" t="s">
+      <c r="AI146" t="s" s="10">
         <v>118</v>
       </c>
       <c r="AJ146" s="9"/>
@@ -6016,11 +6277,11 @@
       </c>
       <c r="AT146" s="11"/>
     </row>
-    <row r="147" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
+    <row r="147">
+      <c r="B147" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C147" t="s" s="10">
         <v>102</v>
       </c>
       <c r="D147" s="9"/>
@@ -6032,7 +6293,7 @@
         <v>52</v>
       </c>
       <c r="J147" s="11"/>
-      <c r="Z147" s="10" t="s">
+      <c r="Z147" t="s" s="10">
         <v>45</v>
       </c>
       <c r="AA147" s="9"/>
@@ -6044,7 +6305,7 @@
         <v>124</v>
       </c>
       <c r="AG147" s="11"/>
-      <c r="AI147" s="10" t="s">
+      <c r="AI147" t="s" s="10">
         <v>116</v>
       </c>
       <c r="AJ147" s="9"/>
@@ -6061,8 +6322,8 @@
       </c>
       <c r="AT147" s="11"/>
     </row>
-    <row r="148" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C148" s="10" t="s">
+    <row r="148">
+      <c r="C148" t="s" s="10">
         <v>95</v>
       </c>
       <c r="D148" s="9"/>
@@ -6074,7 +6335,7 @@
         <v>49</v>
       </c>
       <c r="J148" s="11"/>
-      <c r="L148" s="10" t="s">
+      <c r="L148" t="s" s="10">
         <v>45</v>
       </c>
       <c r="M148" s="9"/>
@@ -6086,7 +6347,7 @@
         <v>75</v>
       </c>
       <c r="S148" s="11"/>
-      <c r="Z148" s="10" t="s">
+      <c r="Z148" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA148" s="9"/>
@@ -6098,7 +6359,7 @@
         <v>32</v>
       </c>
       <c r="AG148" s="11"/>
-      <c r="AI148" s="10" t="s">
+      <c r="AI148" t="s" s="10">
         <v>118</v>
       </c>
       <c r="AJ148" s="9"/>
@@ -6115,13 +6376,13 @@
       </c>
       <c r="AT148" s="11"/>
     </row>
-    <row r="149" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
+    <row r="149">
+      <c r="B149" t="s" s="0">
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="H150" s="10" t="s">
+    <row r="150">
+      <c r="H150" t="s" s="10">
         <v>121</v>
       </c>
       <c r="I150" s="9"/>
@@ -6137,7 +6398,7 @@
         <v>117</v>
       </c>
       <c r="S150" s="11"/>
-      <c r="Z150" s="10" t="s">
+      <c r="Z150" t="s" s="10">
         <v>123</v>
       </c>
       <c r="AA150" s="9"/>
@@ -6149,7 +6410,7 @@
         <v>125</v>
       </c>
       <c r="AG150" s="11"/>
-      <c r="AI150" s="10" t="s">
+      <c r="AI150" t="s" s="10">
         <v>122</v>
       </c>
       <c r="AJ150" s="9"/>
@@ -6166,11 +6427,11 @@
       </c>
       <c r="AT150" s="11"/>
     </row>
-    <row r="151" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
+    <row r="151">
+      <c r="B151" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="Z151" s="2" t="s">
+      <c r="Z151" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA151" s="4"/>
@@ -6190,7 +6451,7 @@
       <c r="AO151" s="4"/>
       <c r="AP151" s="3"/>
     </row>
-    <row r="152" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="152">
       <c r="Z152" s="6"/>
       <c r="AA152" s="5"/>
       <c r="AB152" s="5"/>
@@ -6209,11 +6470,11 @@
       <c r="AO152" s="8"/>
       <c r="AP152" s="7"/>
     </row>
-    <row r="153" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
+    <row r="153">
+      <c r="B153" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C153" t="s" s="10">
         <v>47</v>
       </c>
       <c r="D153" s="9"/>
@@ -6225,7 +6486,7 @@
         <v>25</v>
       </c>
       <c r="J153" s="11"/>
-      <c r="L153" s="10" t="s">
+      <c r="L153" t="s" s="10">
         <v>95</v>
       </c>
       <c r="M153" s="9"/>
@@ -6237,7 +6498,7 @@
         <v>25</v>
       </c>
       <c r="S153" s="11"/>
-      <c r="Z153" s="10" t="s">
+      <c r="Z153" t="s" s="10">
         <v>118</v>
       </c>
       <c r="AA153" s="9"/>
@@ -6254,58 +6515,96 @@
       </c>
       <c r="AK153" s="11"/>
     </row>
-    <row r="155" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B155">
-        <v>49</v>
-      </c>
-      <c r="D155" t="s">
+    <row r="154"/>
+    <row r="155">
+      <c r="B155" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H155" t="s">
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="L155" t="s">
+      <c r="I155" s="27"/>
+      <c r="J155" s="27"/>
+      <c r="K155" s="27"/>
+      <c r="L155" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="P155" t="s">
+      <c r="M155" s="27"/>
+      <c r="N155" s="27"/>
+      <c r="O155" s="27"/>
+      <c r="P155" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="T155" t="s">
+      <c r="Q155" s="27"/>
+      <c r="R155" s="27"/>
+      <c r="S155" s="27"/>
+      <c r="T155" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="X155" t="s">
+      <c r="U155" s="27"/>
+      <c r="V155" s="27"/>
+      <c r="W155" s="27"/>
+      <c r="X155" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AB155" t="s">
+      <c r="Y155" s="27"/>
+      <c r="Z155" s="27"/>
+      <c r="AA155" s="27"/>
+      <c r="AB155" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AF155" t="s">
+      <c r="AC155" s="27"/>
+      <c r="AD155" s="27"/>
+      <c r="AE155" s="27"/>
+      <c r="AF155" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AJ155" t="s">
+      <c r="AG155" s="27"/>
+      <c r="AH155" s="27"/>
+      <c r="AI155" s="27"/>
+      <c r="AJ155" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AN155" t="s">
+      <c r="AK155" s="27"/>
+      <c r="AL155" s="27"/>
+      <c r="AM155" s="27"/>
+      <c r="AN155" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AR155" t="s">
+      <c r="AO155" s="27"/>
+      <c r="AP155" s="27"/>
+      <c r="AQ155" s="27"/>
+      <c r="AR155" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AV155" t="s">
+      <c r="AS155" s="27"/>
+      <c r="AT155" s="27"/>
+      <c r="AU155" s="27"/>
+      <c r="AV155" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AZ155" t="s">
+      <c r="AW155" s="27"/>
+      <c r="AX155" s="27"/>
+      <c r="AY155" s="27"/>
+      <c r="AZ155" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
-        <v>45628</v>
-      </c>
-      <c r="B156" t="s">
+    <row r="156">
+      <c r="A156" t="n" s="1">
+        <v>45628.0</v>
+      </c>
+      <c r="B156" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L156" s="2" t="s">
+      <c r="L156" t="s" s="2">
         <v>126</v>
       </c>
       <c r="M156" s="4"/>
@@ -6315,7 +6614,7 @@
       <c r="Q156" s="4"/>
       <c r="R156" s="4"/>
       <c r="S156" s="3"/>
-      <c r="Z156" s="10" t="s">
+      <c r="Z156" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA156" s="9"/>
@@ -6328,8 +6627,8 @@
       </c>
       <c r="AG156" s="11"/>
     </row>
-    <row r="157" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="L157" s="6" t="s">
+    <row r="157">
+      <c r="L157" t="s" s="6">
         <v>127</v>
       </c>
       <c r="M157" s="5"/>
@@ -6337,11 +6636,11 @@
       <c r="O157" s="5"/>
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
-      <c r="R157" s="8" t="s">
+      <c r="R157" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S157" s="7"/>
-      <c r="AI157" s="10" t="s">
+      <c r="AI157" t="s" s="10">
         <v>118</v>
       </c>
       <c r="AJ157" s="9"/>
@@ -6358,11 +6657,11 @@
       </c>
       <c r="AT157" s="11"/>
     </row>
-    <row r="158" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
+    <row r="158">
+      <c r="B158" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C158" t="s" s="10">
         <v>102</v>
       </c>
       <c r="D158" s="9"/>
@@ -6374,7 +6673,7 @@
         <v>52</v>
       </c>
       <c r="J158" s="11"/>
-      <c r="L158" s="2" t="s">
+      <c r="L158" t="s" s="2">
         <v>128</v>
       </c>
       <c r="M158" s="4"/>
@@ -6384,7 +6683,7 @@
       <c r="Q158" s="4"/>
       <c r="R158" s="4"/>
       <c r="S158" s="3"/>
-      <c r="Z158" s="10" t="s">
+      <c r="Z158" t="s" s="10">
         <v>129</v>
       </c>
       <c r="AA158" s="9"/>
@@ -6396,7 +6695,7 @@
         <v>18</v>
       </c>
       <c r="AG158" s="11"/>
-      <c r="AI158" s="10" t="s">
+      <c r="AI158" t="s" s="10">
         <v>116</v>
       </c>
       <c r="AJ158" s="9"/>
@@ -6413,8 +6712,8 @@
       </c>
       <c r="AT158" s="11"/>
     </row>
-    <row r="159" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C159" s="10" t="s">
+    <row r="159">
+      <c r="C159" t="s" s="10">
         <v>91</v>
       </c>
       <c r="D159" s="9"/>
@@ -6426,7 +6725,7 @@
         <v>75</v>
       </c>
       <c r="J159" s="11"/>
-      <c r="L159" s="6" t="s">
+      <c r="L159" t="s" s="6">
         <v>40</v>
       </c>
       <c r="M159" s="5"/>
@@ -6434,11 +6733,11 @@
       <c r="O159" s="5"/>
       <c r="P159" s="5"/>
       <c r="Q159" s="5"/>
-      <c r="R159" s="8" t="s">
+      <c r="R159" t="s" s="8">
         <v>25</v>
       </c>
       <c r="S159" s="7"/>
-      <c r="Z159" s="10" t="s">
+      <c r="Z159" t="s" s="10">
         <v>31</v>
       </c>
       <c r="AA159" s="9"/>
@@ -6450,7 +6749,7 @@
         <v>32</v>
       </c>
       <c r="AG159" s="11"/>
-      <c r="AI159" s="10" t="s">
+      <c r="AI159" t="s" s="10">
         <v>118</v>
       </c>
       <c r="AJ159" s="9"/>
@@ -6467,13 +6766,13 @@
       </c>
       <c r="AT159" s="11"/>
     </row>
-    <row r="160" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
+    <row r="160">
+      <c r="B160" t="s" s="0">
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="H161" s="10" t="s">
+    <row r="161">
+      <c r="H161" t="s" s="10">
         <v>121</v>
       </c>
       <c r="I161" s="9"/>
@@ -6489,7 +6788,7 @@
         <v>117</v>
       </c>
       <c r="S161" s="11"/>
-      <c r="Z161" s="10" t="s">
+      <c r="Z161" t="s" s="10">
         <v>123</v>
       </c>
       <c r="AA161" s="9"/>
@@ -6501,7 +6800,7 @@
         <v>115</v>
       </c>
       <c r="AG161" s="11"/>
-      <c r="AI161" s="10" t="s">
+      <c r="AI161" t="s" s="10">
         <v>122</v>
       </c>
       <c r="AJ161" s="9"/>
@@ -6518,11 +6817,11 @@
       </c>
       <c r="AT161" s="11"/>
     </row>
-    <row r="162" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B162" t="s">
+    <row r="162">
+      <c r="B162" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="Z162" s="2" t="s">
+      <c r="Z162" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA162" s="4"/>
@@ -6542,7 +6841,7 @@
       <c r="AO162" s="4"/>
       <c r="AP162" s="3"/>
     </row>
-    <row r="163" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="163">
       <c r="Z163" s="6"/>
       <c r="AA163" s="5"/>
       <c r="AB163" s="5"/>
@@ -6561,11 +6860,11 @@
       <c r="AO163" s="8"/>
       <c r="AP163" s="7"/>
     </row>
-    <row r="164" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
+    <row r="164">
+      <c r="B164" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="L164" s="2" t="s">
+      <c r="L164" t="s" s="2">
         <v>130</v>
       </c>
       <c r="M164" s="4"/>
@@ -6575,7 +6874,7 @@
       <c r="Q164" s="4"/>
       <c r="R164" s="4"/>
       <c r="S164" s="3"/>
-      <c r="Z164" s="10" t="s">
+      <c r="Z164" t="s" s="10">
         <v>118</v>
       </c>
       <c r="AA164" s="9"/>
@@ -6592,70 +6891,107 @@
       </c>
       <c r="AK164" s="11"/>
     </row>
-    <row r="165" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="165">
       <c r="L165" s="6"/>
       <c r="M165" s="5"/>
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
       <c r="P165" s="5"/>
       <c r="Q165" s="5"/>
-      <c r="R165" s="8" t="s">
+      <c r="R165" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S165" s="7"/>
     </row>
-    <row r="166" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B166">
-        <v>50</v>
-      </c>
-      <c r="D166" t="s">
+    <row r="166">
+      <c r="B166" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="C166" s="28"/>
+      <c r="D166" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H166" t="s">
+      <c r="E166" s="28"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="28"/>
+      <c r="H166" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="L166" t="s">
+      <c r="I166" s="28"/>
+      <c r="J166" s="28"/>
+      <c r="K166" s="28"/>
+      <c r="L166" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="P166" t="s">
+      <c r="M166" s="28"/>
+      <c r="N166" s="28"/>
+      <c r="O166" s="28"/>
+      <c r="P166" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="T166" t="s">
+      <c r="Q166" s="28"/>
+      <c r="R166" s="28"/>
+      <c r="S166" s="28"/>
+      <c r="T166" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="X166" t="s">
+      <c r="U166" s="28"/>
+      <c r="V166" s="28"/>
+      <c r="W166" s="28"/>
+      <c r="X166" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AB166" t="s">
+      <c r="Y166" s="28"/>
+      <c r="Z166" s="28"/>
+      <c r="AA166" s="28"/>
+      <c r="AB166" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AF166" t="s">
+      <c r="AC166" s="28"/>
+      <c r="AD166" s="28"/>
+      <c r="AE166" s="28"/>
+      <c r="AF166" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AJ166" t="s">
+      <c r="AG166" s="28"/>
+      <c r="AH166" s="28"/>
+      <c r="AI166" s="28"/>
+      <c r="AJ166" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="AN166" t="s">
+      <c r="AK166" s="28"/>
+      <c r="AL166" s="28"/>
+      <c r="AM166" s="28"/>
+      <c r="AN166" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AR166" t="s">
+      <c r="AO166" s="28"/>
+      <c r="AP166" s="28"/>
+      <c r="AQ166" s="28"/>
+      <c r="AR166" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AV166" t="s">
+      <c r="AS166" s="28"/>
+      <c r="AT166" s="28"/>
+      <c r="AU166" s="28"/>
+      <c r="AV166" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AZ166" t="s">
+      <c r="AW166" s="28"/>
+      <c r="AX166" s="28"/>
+      <c r="AY166" s="28"/>
+      <c r="AZ166" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
-        <v>45635</v>
-      </c>
-      <c r="B167" t="s">
+    <row r="167">
+      <c r="A167" t="n" s="1">
+        <v>45635.0</v>
+      </c>
+      <c r="B167" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="H167" s="2" t="s">
+      <c r="H167" t="s" s="2">
         <v>131</v>
       </c>
       <c r="I167" s="4"/>
@@ -6669,7 +7005,7 @@
       <c r="Q167" s="4"/>
       <c r="R167" s="4"/>
       <c r="S167" s="3"/>
-      <c r="Z167" s="2" t="s">
+      <c r="Z167" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AA167" s="4"/>
@@ -6679,7 +7015,7 @@
       <c r="AE167" s="4"/>
       <c r="AF167" s="4"/>
       <c r="AG167" s="3"/>
-      <c r="AI167" s="10" t="s">
+      <c r="AI167" t="s" s="10">
         <v>118</v>
       </c>
       <c r="AJ167" s="9"/>
@@ -6696,7 +7032,7 @@
       </c>
       <c r="AT167" s="11"/>
     </row>
-    <row r="168" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="168">
       <c r="H168" s="6"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -6718,11 +7054,11 @@
       <c r="AF168" s="8"/>
       <c r="AG168" s="7"/>
     </row>
-    <row r="169" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B169" t="s">
+    <row r="169">
+      <c r="B169" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" t="s" s="10">
         <v>102</v>
       </c>
       <c r="D169" s="9"/>
@@ -6734,7 +7070,7 @@
         <v>25</v>
       </c>
       <c r="J169" s="11"/>
-      <c r="L169" s="2" t="s">
+      <c r="L169" t="s" s="2">
         <v>131</v>
       </c>
       <c r="M169" s="4"/>
@@ -6744,7 +7080,7 @@
       <c r="Q169" s="4"/>
       <c r="R169" s="4"/>
       <c r="S169" s="3"/>
-      <c r="Z169" s="2" t="s">
+      <c r="Z169" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AA169" s="4"/>
@@ -6754,7 +7090,7 @@
       <c r="AE169" s="4"/>
       <c r="AF169" s="4"/>
       <c r="AG169" s="3"/>
-      <c r="AI169" s="10" t="s">
+      <c r="AI169" t="s" s="10">
         <v>116</v>
       </c>
       <c r="AJ169" s="9"/>
@@ -6771,7 +7107,7 @@
       </c>
       <c r="AT169" s="11"/>
     </row>
-    <row r="170" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="170">
       <c r="L170" s="6"/>
       <c r="M170" s="5"/>
       <c r="N170" s="5"/>
@@ -6789,11 +7125,11 @@
       <c r="AF170" s="8"/>
       <c r="AG170" s="7"/>
     </row>
-    <row r="171" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B171" t="s">
+    <row r="171">
+      <c r="B171" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="Z171" s="10" t="s">
+      <c r="Z171" t="s" s="10">
         <v>132</v>
       </c>
       <c r="AA171" s="9"/>
@@ -6808,8 +7144,8 @@
       </c>
       <c r="AI171" s="11"/>
     </row>
-    <row r="172" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="AI172" s="10" t="s">
+    <row r="172">
+      <c r="AI172" t="s" s="10">
         <v>122</v>
       </c>
       <c r="AJ172" s="9"/>
@@ -6826,11 +7162,11 @@
       </c>
       <c r="AT172" s="11"/>
     </row>
-    <row r="173" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B173" t="s">
+    <row r="173">
+      <c r="B173" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="Z173" s="2" t="s">
+      <c r="Z173" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA173" s="4"/>
@@ -6850,7 +7186,7 @@
       <c r="AO173" s="4"/>
       <c r="AP173" s="3"/>
     </row>
-    <row r="174" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="174">
       <c r="Z174" s="6"/>
       <c r="AA174" s="5"/>
       <c r="AB174" s="5"/>
@@ -6869,11 +7205,11 @@
       <c r="AO174" s="8"/>
       <c r="AP174" s="7"/>
     </row>
-    <row r="175" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B175" t="s">
+    <row r="175">
+      <c r="B175" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="H175" s="2" t="s">
+      <c r="H175" t="s" s="2">
         <v>131</v>
       </c>
       <c r="I175" s="4"/>
@@ -6887,7 +7223,7 @@
       <c r="Q175" s="4"/>
       <c r="R175" s="4"/>
       <c r="S175" s="3"/>
-      <c r="Z175" s="10" t="s">
+      <c r="Z175" t="s" s="10">
         <v>118</v>
       </c>
       <c r="AA175" s="9"/>
@@ -6904,7 +7240,7 @@
       </c>
       <c r="AK175" s="11"/>
     </row>
-    <row r="176" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="176">
       <c r="H176" s="6"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
@@ -6918,58 +7254,95 @@
       <c r="R176" s="8"/>
       <c r="S176" s="7"/>
     </row>
-    <row r="177" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B177">
-        <v>51</v>
-      </c>
-      <c r="D177" t="s">
+    <row r="177">
+      <c r="B177" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="C177" s="29"/>
+      <c r="D177" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="H177" t="s">
+      <c r="E177" s="29"/>
+      <c r="F177" s="29"/>
+      <c r="G177" s="29"/>
+      <c r="H177" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L177" t="s">
+      <c r="I177" s="29"/>
+      <c r="J177" s="29"/>
+      <c r="K177" s="29"/>
+      <c r="L177" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="P177" t="s">
+      <c r="M177" s="29"/>
+      <c r="N177" s="29"/>
+      <c r="O177" s="29"/>
+      <c r="P177" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="T177" t="s">
+      <c r="Q177" s="29"/>
+      <c r="R177" s="29"/>
+      <c r="S177" s="29"/>
+      <c r="T177" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="X177" t="s">
+      <c r="U177" s="29"/>
+      <c r="V177" s="29"/>
+      <c r="W177" s="29"/>
+      <c r="X177" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AB177" t="s">
+      <c r="Y177" s="29"/>
+      <c r="Z177" s="29"/>
+      <c r="AA177" s="29"/>
+      <c r="AB177" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AF177" t="s">
+      <c r="AC177" s="29"/>
+      <c r="AD177" s="29"/>
+      <c r="AE177" s="29"/>
+      <c r="AF177" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AJ177" t="s">
+      <c r="AG177" s="29"/>
+      <c r="AH177" s="29"/>
+      <c r="AI177" s="29"/>
+      <c r="AJ177" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AN177" t="s">
+      <c r="AK177" s="29"/>
+      <c r="AL177" s="29"/>
+      <c r="AM177" s="29"/>
+      <c r="AN177" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AR177" t="s">
+      <c r="AO177" s="29"/>
+      <c r="AP177" s="29"/>
+      <c r="AQ177" s="29"/>
+      <c r="AR177" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AV177" t="s">
+      <c r="AS177" s="29"/>
+      <c r="AT177" s="29"/>
+      <c r="AU177" s="29"/>
+      <c r="AV177" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AZ177" t="s">
+      <c r="AW177" s="29"/>
+      <c r="AX177" s="29"/>
+      <c r="AY177" s="29"/>
+      <c r="AZ177" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
-        <v>45642</v>
-      </c>
-      <c r="B178" t="s">
+    <row r="178">
+      <c r="A178" t="n" s="1">
+        <v>45642.0</v>
+      </c>
+      <c r="B178" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="H178" s="2" t="s">
+      <c r="H178" t="s" s="2">
         <v>131</v>
       </c>
       <c r="I178" s="4"/>
@@ -6983,7 +7356,7 @@
       <c r="Q178" s="4"/>
       <c r="R178" s="4"/>
       <c r="S178" s="3"/>
-      <c r="Z178" s="2" t="s">
+      <c r="Z178" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AA178" s="4"/>
@@ -6998,7 +7371,7 @@
       <c r="AJ178" s="4"/>
       <c r="AK178" s="3"/>
     </row>
-    <row r="179" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="179">
       <c r="H179" s="6"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
@@ -7024,11 +7397,11 @@
       <c r="AJ179" s="8"/>
       <c r="AK179" s="7"/>
     </row>
-    <row r="180" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B180" t="s">
+    <row r="180">
+      <c r="B180" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" t="s" s="2">
         <v>131</v>
       </c>
       <c r="D180" s="4"/>
@@ -7038,7 +7411,7 @@
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
       <c r="J180" s="3"/>
-      <c r="L180" s="10" t="s">
+      <c r="L180" t="s" s="10">
         <v>102</v>
       </c>
       <c r="M180" s="9"/>
@@ -7050,7 +7423,7 @@
         <v>18</v>
       </c>
       <c r="S180" s="11"/>
-      <c r="Z180" s="2" t="s">
+      <c r="Z180" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AA180" s="4"/>
@@ -7065,7 +7438,7 @@
       <c r="AJ180" s="4"/>
       <c r="AK180" s="3"/>
     </row>
-    <row r="181" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="181">
       <c r="C181" s="6"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -7087,11 +7460,11 @@
       <c r="AJ181" s="8"/>
       <c r="AK181" s="7"/>
     </row>
-    <row r="182" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B182" t="s">
+    <row r="182">
+      <c r="B182" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="Z182" s="10" t="s">
+      <c r="Z182" t="s" s="10">
         <v>132</v>
       </c>
       <c r="AA182" s="9"/>
@@ -7106,11 +7479,12 @@
       </c>
       <c r="AI182" s="11"/>
     </row>
-    <row r="184" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B184" t="s">
+    <row r="183"/>
+    <row r="184">
+      <c r="B184" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="C184" t="s" s="10">
         <v>132</v>
       </c>
       <c r="D184" s="9"/>
@@ -7122,7 +7496,7 @@
         <v>115</v>
       </c>
       <c r="J184" s="11"/>
-      <c r="Z184" s="2" t="s">
+      <c r="Z184" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA184" s="4"/>
@@ -7142,8 +7516,8 @@
       <c r="AO184" s="4"/>
       <c r="AP184" s="3"/>
     </row>
-    <row r="185" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="L185" s="10" t="s">
+    <row r="185">
+      <c r="L185" t="s" s="10">
         <v>133</v>
       </c>
       <c r="M185" s="9"/>
@@ -7173,63 +7547,101 @@
       <c r="AO185" s="8"/>
       <c r="AP185" s="7"/>
     </row>
-    <row r="186" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B186" t="s">
+    <row r="186">
+      <c r="B186" t="s" s="0">
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B188">
+    <row r="187"/>
+    <row r="188">
+      <c r="B188" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C188" s="30"/>
+      <c r="D188" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E188" s="30"/>
+      <c r="F188" s="30"/>
+      <c r="G188" s="30"/>
+      <c r="H188" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I188" s="30"/>
+      <c r="J188" s="30"/>
+      <c r="K188" s="30"/>
+      <c r="L188" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D188" t="s">
-        <v>0</v>
-      </c>
-      <c r="H188" t="s">
-        <v>1</v>
-      </c>
-      <c r="L188" t="s">
-        <v>2</v>
-      </c>
-      <c r="P188" t="s">
+      <c r="M188" s="30"/>
+      <c r="N188" s="30"/>
+      <c r="O188" s="30"/>
+      <c r="P188" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="T188" t="s">
+      <c r="Q188" s="30"/>
+      <c r="R188" s="30"/>
+      <c r="S188" s="30"/>
+      <c r="T188" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="X188" t="s">
+      <c r="U188" s="30"/>
+      <c r="V188" s="30"/>
+      <c r="W188" s="30"/>
+      <c r="X188" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AB188" t="s">
+      <c r="Y188" s="30"/>
+      <c r="Z188" s="30"/>
+      <c r="AA188" s="30"/>
+      <c r="AB188" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AF188" t="s">
+      <c r="AC188" s="30"/>
+      <c r="AD188" s="30"/>
+      <c r="AE188" s="30"/>
+      <c r="AF188" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AJ188" t="s">
+      <c r="AG188" s="30"/>
+      <c r="AH188" s="30"/>
+      <c r="AI188" s="30"/>
+      <c r="AJ188" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AN188" t="s">
+      <c r="AK188" s="30"/>
+      <c r="AL188" s="30"/>
+      <c r="AM188" s="30"/>
+      <c r="AN188" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AR188" t="s">
+      <c r="AO188" s="30"/>
+      <c r="AP188" s="30"/>
+      <c r="AQ188" s="30"/>
+      <c r="AR188" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AV188" t="s">
+      <c r="AS188" s="30"/>
+      <c r="AT188" s="30"/>
+      <c r="AU188" s="30"/>
+      <c r="AV188" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AZ188" t="s">
+      <c r="AW188" s="30"/>
+      <c r="AX188" s="30"/>
+      <c r="AY188" s="30"/>
+      <c r="AZ188" s="30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>45649</v>
-      </c>
-      <c r="B189" t="s">
+    <row r="189">
+      <c r="A189" t="n" s="1">
+        <v>45649.0</v>
+      </c>
+      <c r="B189" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" t="s" s="2">
         <v>134</v>
       </c>
       <c r="D189" s="4"/>
@@ -7239,7 +7651,7 @@
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
       <c r="J189" s="3"/>
-      <c r="L189" s="2" t="s">
+      <c r="L189" t="s" s="2">
         <v>135</v>
       </c>
       <c r="M189" s="4"/>
@@ -7249,7 +7661,7 @@
       <c r="Q189" s="4"/>
       <c r="R189" s="4"/>
       <c r="S189" s="3"/>
-      <c r="Z189" s="10" t="s">
+      <c r="Z189" t="s" s="10">
         <v>137</v>
       </c>
       <c r="AA189" s="9"/>
@@ -7259,7 +7671,7 @@
       <c r="AE189" s="9"/>
       <c r="AF189" s="12"/>
       <c r="AG189" s="11"/>
-      <c r="AI189" s="10" t="s">
+      <c r="AI189" t="s" s="10">
         <v>137</v>
       </c>
       <c r="AJ189" s="9"/>
@@ -7269,7 +7681,7 @@
       <c r="AN189" s="9"/>
       <c r="AO189" s="12"/>
       <c r="AP189" s="11"/>
-      <c r="AR189" s="10" t="s">
+      <c r="AR189" t="s" s="10">
         <v>137</v>
       </c>
       <c r="AS189" s="9"/>
@@ -7280,8 +7692,8 @@
       <c r="AX189" s="12"/>
       <c r="AY189" s="11"/>
     </row>
-    <row r="190" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C190" s="6" t="s">
+    <row r="190">
+      <c r="C190" t="s" s="6">
         <v>22</v>
       </c>
       <c r="D190" s="5"/>
@@ -7289,11 +7701,11 @@
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
-      <c r="I190" s="8" t="s">
+      <c r="I190" t="s" s="8">
         <v>18</v>
       </c>
       <c r="J190" s="7"/>
-      <c r="L190" s="6" t="s">
+      <c r="L190" t="s" s="6">
         <v>136</v>
       </c>
       <c r="M190" s="5"/>
@@ -7301,11 +7713,11 @@
       <c r="O190" s="5"/>
       <c r="P190" s="5"/>
       <c r="Q190" s="5"/>
-      <c r="R190" s="8" t="s">
+      <c r="R190" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S190" s="7"/>
-      <c r="Z190" s="10" t="s">
+      <c r="Z190" t="s" s="10">
         <v>138</v>
       </c>
       <c r="AA190" s="9"/>
@@ -7316,11 +7728,11 @@
       <c r="AF190" s="12"/>
       <c r="AG190" s="11"/>
     </row>
-    <row r="191" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B191" t="s">
+    <row r="191">
+      <c r="B191" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" t="s" s="2">
         <v>139</v>
       </c>
       <c r="D191" s="4"/>
@@ -7330,7 +7742,7 @@
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
       <c r="J191" s="3"/>
-      <c r="L191" s="2" t="s">
+      <c r="L191" t="s" s="2">
         <v>135</v>
       </c>
       <c r="M191" s="4"/>
@@ -7340,7 +7752,7 @@
       <c r="Q191" s="4"/>
       <c r="R191" s="4"/>
       <c r="S191" s="3"/>
-      <c r="Z191" s="2" t="s">
+      <c r="Z191" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AA191" s="4"/>
@@ -7350,7 +7762,7 @@
       <c r="AE191" s="4"/>
       <c r="AF191" s="4"/>
       <c r="AG191" s="3"/>
-      <c r="AI191" s="2" t="s">
+      <c r="AI191" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AJ191" s="4"/>
@@ -7361,8 +7773,8 @@
       <c r="AO191" s="4"/>
       <c r="AP191" s="3"/>
     </row>
-    <row r="192" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="C192" s="6" t="s">
+    <row r="192">
+      <c r="C192" t="s" s="6">
         <v>22</v>
       </c>
       <c r="D192" s="5"/>
@@ -7370,11 +7782,11 @@
       <c r="F192" s="5"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
-      <c r="I192" s="8" t="s">
+      <c r="I192" t="s" s="8">
         <v>25</v>
       </c>
       <c r="J192" s="7"/>
-      <c r="L192" s="6" t="s">
+      <c r="L192" t="s" s="6">
         <v>136</v>
       </c>
       <c r="M192" s="5"/>
@@ -7382,11 +7794,11 @@
       <c r="O192" s="5"/>
       <c r="P192" s="5"/>
       <c r="Q192" s="5"/>
-      <c r="R192" s="8" t="s">
+      <c r="R192" t="s" s="8">
         <v>25</v>
       </c>
       <c r="S192" s="7"/>
-      <c r="Z192" s="6" t="s">
+      <c r="Z192" t="s" s="6">
         <v>141</v>
       </c>
       <c r="AA192" s="5"/>
@@ -7394,11 +7806,11 @@
       <c r="AC192" s="5"/>
       <c r="AD192" s="5"/>
       <c r="AE192" s="5"/>
-      <c r="AF192" s="8" t="s">
+      <c r="AF192" t="s" s="8">
         <v>25</v>
       </c>
       <c r="AG192" s="7"/>
-      <c r="AI192" s="6" t="s">
+      <c r="AI192" t="s" s="6">
         <v>141</v>
       </c>
       <c r="AJ192" s="5"/>
@@ -7406,16 +7818,16 @@
       <c r="AL192" s="5"/>
       <c r="AM192" s="5"/>
       <c r="AN192" s="5"/>
-      <c r="AO192" s="8" t="s">
+      <c r="AO192" t="s" s="8">
         <v>25</v>
       </c>
       <c r="AP192" s="7"/>
     </row>
-    <row r="193" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B193" t="s">
+    <row r="193">
+      <c r="B193" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" t="s" s="2">
         <v>142</v>
       </c>
       <c r="D193" s="4"/>
@@ -7425,7 +7837,7 @@
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
       <c r="J193" s="3"/>
-      <c r="L193" s="2" t="s">
+      <c r="L193" t="s" s="2">
         <v>144</v>
       </c>
       <c r="M193" s="4"/>
@@ -7435,7 +7847,7 @@
       <c r="Q193" s="4"/>
       <c r="R193" s="4"/>
       <c r="S193" s="3"/>
-      <c r="Z193" s="2" t="s">
+      <c r="Z193" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AA193" s="4"/>
@@ -7445,7 +7857,7 @@
       <c r="AE193" s="4"/>
       <c r="AF193" s="4"/>
       <c r="AG193" s="3"/>
-      <c r="AI193" s="10" t="s">
+      <c r="AI193" t="s" s="10">
         <v>138</v>
       </c>
       <c r="AJ193" s="9"/>
@@ -7458,8 +7870,8 @@
       </c>
       <c r="AP193" s="11"/>
     </row>
-    <row r="194" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C194" s="6" t="s">
+    <row r="194">
+      <c r="C194" t="s" s="6">
         <v>143</v>
       </c>
       <c r="D194" s="5"/>
@@ -7467,11 +7879,11 @@
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
-      <c r="I194" s="8" t="s">
+      <c r="I194" t="s" s="8">
         <v>25</v>
       </c>
       <c r="J194" s="7"/>
-      <c r="L194" s="6" t="s">
+      <c r="L194" t="s" s="6">
         <v>22</v>
       </c>
       <c r="M194" s="5"/>
@@ -7479,11 +7891,11 @@
       <c r="O194" s="5"/>
       <c r="P194" s="5"/>
       <c r="Q194" s="5"/>
-      <c r="R194" s="8" t="s">
+      <c r="R194" t="s" s="8">
         <v>25</v>
       </c>
       <c r="S194" s="7"/>
-      <c r="Z194" s="6" t="s">
+      <c r="Z194" t="s" s="6">
         <v>42</v>
       </c>
       <c r="AA194" s="5"/>
@@ -7491,11 +7903,11 @@
       <c r="AC194" s="5"/>
       <c r="AD194" s="5"/>
       <c r="AE194" s="5"/>
-      <c r="AF194" s="8" t="s">
+      <c r="AF194" t="s" s="8">
         <v>25</v>
       </c>
       <c r="AG194" s="7"/>
-      <c r="AI194" s="10" t="s">
+      <c r="AI194" t="s" s="10">
         <v>121</v>
       </c>
       <c r="AJ194" s="9"/>
@@ -7512,11 +7924,11 @@
       </c>
       <c r="AT194" s="11"/>
     </row>
-    <row r="195" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B195" t="s">
+    <row r="195">
+      <c r="B195" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" t="s" s="2">
         <v>145</v>
       </c>
       <c r="D195" s="4"/>
@@ -7526,7 +7938,7 @@
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
       <c r="J195" s="3"/>
-      <c r="L195" s="2" t="s">
+      <c r="L195" t="s" s="2">
         <v>139</v>
       </c>
       <c r="M195" s="4"/>
@@ -7536,7 +7948,7 @@
       <c r="Q195" s="4"/>
       <c r="R195" s="4"/>
       <c r="S195" s="3"/>
-      <c r="Z195" s="2" t="s">
+      <c r="Z195" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA195" s="4"/>
@@ -7556,8 +7968,8 @@
       <c r="AO195" s="4"/>
       <c r="AP195" s="3"/>
     </row>
-    <row r="196" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C196" s="6" t="s">
+    <row r="196">
+      <c r="C196" t="s" s="6">
         <v>87</v>
       </c>
       <c r="D196" s="5"/>
@@ -7565,11 +7977,11 @@
       <c r="F196" s="5"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
-      <c r="I196" s="8" t="s">
+      <c r="I196" t="s" s="8">
         <v>18</v>
       </c>
       <c r="J196" s="7"/>
-      <c r="L196" s="6" t="s">
+      <c r="L196" t="s" s="6">
         <v>22</v>
       </c>
       <c r="M196" s="5"/>
@@ -7577,7 +7989,7 @@
       <c r="O196" s="5"/>
       <c r="P196" s="5"/>
       <c r="Q196" s="5"/>
-      <c r="R196" s="8" t="s">
+      <c r="R196" t="s" s="8">
         <v>25</v>
       </c>
       <c r="S196" s="7"/>
@@ -7599,11 +8011,11 @@
       <c r="AO196" s="8"/>
       <c r="AP196" s="7"/>
     </row>
-    <row r="197" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B197" t="s">
+    <row r="197">
+      <c r="B197" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="L197" s="2" t="s">
+      <c r="L197" t="s" s="2">
         <v>130</v>
       </c>
       <c r="M197" s="4"/>
@@ -7614,18 +8026,18 @@
       <c r="R197" s="4"/>
       <c r="S197" s="3"/>
     </row>
-    <row r="198" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="198">
       <c r="L198" s="6"/>
       <c r="M198" s="5"/>
       <c r="N198" s="5"/>
       <c r="O198" s="5"/>
       <c r="P198" s="5"/>
       <c r="Q198" s="5"/>
-      <c r="R198" s="8" t="s">
+      <c r="R198" t="s" s="8">
         <v>18</v>
       </c>
       <c r="S198" s="7"/>
-      <c r="X198" s="10" t="s">
+      <c r="X198" t="s" s="10">
         <v>146</v>
       </c>
       <c r="Y198" s="9"/>
@@ -7636,58 +8048,95 @@
       <c r="AD198" s="12"/>
       <c r="AE198" s="11"/>
     </row>
-    <row r="199" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B199">
+    <row r="199">
+      <c r="B199" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C199" s="31"/>
+      <c r="D199" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E199" s="31"/>
+      <c r="F199" s="31"/>
+      <c r="G199" s="31"/>
+      <c r="H199" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I199" s="31"/>
+      <c r="J199" s="31"/>
+      <c r="K199" s="31"/>
+      <c r="L199" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="M199" s="31"/>
+      <c r="N199" s="31"/>
+      <c r="O199" s="31"/>
+      <c r="P199" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D199" t="s">
-        <v>0</v>
-      </c>
-      <c r="H199" t="s">
-        <v>1</v>
-      </c>
-      <c r="L199" t="s">
-        <v>2</v>
-      </c>
-      <c r="P199" t="s">
-        <v>3</v>
-      </c>
-      <c r="T199" t="s">
+      <c r="Q199" s="31"/>
+      <c r="R199" s="31"/>
+      <c r="S199" s="31"/>
+      <c r="T199" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="X199" t="s">
+      <c r="U199" s="31"/>
+      <c r="V199" s="31"/>
+      <c r="W199" s="31"/>
+      <c r="X199" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AB199" t="s">
+      <c r="Y199" s="31"/>
+      <c r="Z199" s="31"/>
+      <c r="AA199" s="31"/>
+      <c r="AB199" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AF199" t="s">
+      <c r="AC199" s="31"/>
+      <c r="AD199" s="31"/>
+      <c r="AE199" s="31"/>
+      <c r="AF199" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AJ199" t="s">
+      <c r="AG199" s="31"/>
+      <c r="AH199" s="31"/>
+      <c r="AI199" s="31"/>
+      <c r="AJ199" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AN199" t="s">
+      <c r="AK199" s="31"/>
+      <c r="AL199" s="31"/>
+      <c r="AM199" s="31"/>
+      <c r="AN199" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AR199" t="s">
+      <c r="AO199" s="31"/>
+      <c r="AP199" s="31"/>
+      <c r="AQ199" s="31"/>
+      <c r="AR199" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AV199" t="s">
+      <c r="AS199" s="31"/>
+      <c r="AT199" s="31"/>
+      <c r="AU199" s="31"/>
+      <c r="AV199" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AZ199" t="s">
+      <c r="AW199" s="31"/>
+      <c r="AX199" s="31"/>
+      <c r="AY199" s="31"/>
+      <c r="AZ199" s="31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
-        <v>45656</v>
-      </c>
-      <c r="B200" t="s">
+    <row r="200">
+      <c r="A200" t="n" s="1">
+        <v>45656.0</v>
+      </c>
+      <c r="B200" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" t="s" s="2">
         <v>147</v>
       </c>
       <c r="D200" s="4"/>
@@ -7697,7 +8146,7 @@
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="3"/>
-      <c r="L200" s="2" t="s">
+      <c r="L200" t="s" s="2">
         <v>135</v>
       </c>
       <c r="M200" s="4"/>
@@ -7707,7 +8156,7 @@
       <c r="Q200" s="4"/>
       <c r="R200" s="4"/>
       <c r="S200" s="3"/>
-      <c r="Z200" s="10" t="s">
+      <c r="Z200" t="s" s="10">
         <v>137</v>
       </c>
       <c r="AA200" s="9"/>
@@ -7717,7 +8166,7 @@
       <c r="AE200" s="9"/>
       <c r="AF200" s="12"/>
       <c r="AG200" s="11"/>
-      <c r="AI200" s="10" t="s">
+      <c r="AI200" t="s" s="10">
         <v>137</v>
       </c>
       <c r="AJ200" s="9"/>
@@ -7727,7 +8176,7 @@
       <c r="AN200" s="9"/>
       <c r="AO200" s="12"/>
       <c r="AP200" s="11"/>
-      <c r="AR200" s="10" t="s">
+      <c r="AR200" t="s" s="10">
         <v>137</v>
       </c>
       <c r="AS200" s="9"/>
@@ -7740,8 +8189,8 @@
       <c r="AZ200" s="12"/>
       <c r="BA200" s="11"/>
     </row>
-    <row r="201" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C201" s="6" t="s">
+    <row r="201">
+      <c r="C201" t="s" s="6">
         <v>22</v>
       </c>
       <c r="D201" s="5"/>
@@ -7751,7 +8200,7 @@
       <c r="H201" s="5"/>
       <c r="I201" s="8"/>
       <c r="J201" s="7"/>
-      <c r="L201" s="6" t="s">
+      <c r="L201" t="s" s="6">
         <v>136</v>
       </c>
       <c r="M201" s="5"/>
@@ -7761,7 +8210,7 @@
       <c r="Q201" s="5"/>
       <c r="R201" s="8"/>
       <c r="S201" s="7"/>
-      <c r="Z201" s="10" t="s">
+      <c r="Z201" t="s" s="10">
         <v>138</v>
       </c>
       <c r="AA201" s="9"/>
@@ -7772,11 +8221,11 @@
       <c r="AF201" s="12"/>
       <c r="AG201" s="11"/>
     </row>
-    <row r="202" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B202" t="s">
+    <row r="202">
+      <c r="B202" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" t="s" s="2">
         <v>139</v>
       </c>
       <c r="D202" s="4"/>
@@ -7786,7 +8235,7 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="3"/>
-      <c r="L202" s="2" t="s">
+      <c r="L202" t="s" s="2">
         <v>135</v>
       </c>
       <c r="M202" s="4"/>
@@ -7796,7 +8245,7 @@
       <c r="Q202" s="4"/>
       <c r="R202" s="4"/>
       <c r="S202" s="3"/>
-      <c r="Z202" s="2" t="s">
+      <c r="Z202" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AA202" s="4"/>
@@ -7806,7 +8255,7 @@
       <c r="AE202" s="4"/>
       <c r="AF202" s="4"/>
       <c r="AG202" s="3"/>
-      <c r="AI202" s="2" t="s">
+      <c r="AI202" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AJ202" s="4"/>
@@ -7817,8 +8266,8 @@
       <c r="AO202" s="4"/>
       <c r="AP202" s="3"/>
     </row>
-    <row r="203" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C203" s="6" t="s">
+    <row r="203">
+      <c r="C203" t="s" s="6">
         <v>22</v>
       </c>
       <c r="D203" s="5"/>
@@ -7828,7 +8277,7 @@
       <c r="H203" s="5"/>
       <c r="I203" s="8"/>
       <c r="J203" s="7"/>
-      <c r="L203" s="6" t="s">
+      <c r="L203" t="s" s="6">
         <v>136</v>
       </c>
       <c r="M203" s="5"/>
@@ -7838,7 +8287,7 @@
       <c r="Q203" s="5"/>
       <c r="R203" s="8"/>
       <c r="S203" s="7"/>
-      <c r="Z203" s="6" t="s">
+      <c r="Z203" t="s" s="6">
         <v>141</v>
       </c>
       <c r="AA203" s="5"/>
@@ -7848,7 +8297,7 @@
       <c r="AE203" s="5"/>
       <c r="AF203" s="8"/>
       <c r="AG203" s="7"/>
-      <c r="AI203" s="6" t="s">
+      <c r="AI203" t="s" s="6">
         <v>141</v>
       </c>
       <c r="AJ203" s="5"/>
@@ -7859,11 +8308,11 @@
       <c r="AO203" s="8"/>
       <c r="AP203" s="7"/>
     </row>
-    <row r="204" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B204" t="s">
+    <row r="204">
+      <c r="B204" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" t="s" s="2">
         <v>142</v>
       </c>
       <c r="D204" s="4"/>
@@ -7873,7 +8322,7 @@
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
       <c r="J204" s="3"/>
-      <c r="L204" s="2" t="s">
+      <c r="L204" t="s" s="2">
         <v>144</v>
       </c>
       <c r="M204" s="4"/>
@@ -7883,7 +8332,7 @@
       <c r="Q204" s="4"/>
       <c r="R204" s="4"/>
       <c r="S204" s="3"/>
-      <c r="Z204" s="2" t="s">
+      <c r="Z204" t="s" s="2">
         <v>148</v>
       </c>
       <c r="AA204" s="4"/>
@@ -7893,7 +8342,7 @@
       <c r="AE204" s="4"/>
       <c r="AF204" s="4"/>
       <c r="AG204" s="3"/>
-      <c r="AI204" s="10" t="s">
+      <c r="AI204" t="s" s="10">
         <v>138</v>
       </c>
       <c r="AJ204" s="9"/>
@@ -7904,8 +8353,8 @@
       <c r="AO204" s="12"/>
       <c r="AP204" s="11"/>
     </row>
-    <row r="205" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C205" s="6" t="s">
+    <row r="205">
+      <c r="C205" t="s" s="6">
         <v>143</v>
       </c>
       <c r="D205" s="5"/>
@@ -7915,7 +8364,7 @@
       <c r="H205" s="5"/>
       <c r="I205" s="8"/>
       <c r="J205" s="7"/>
-      <c r="L205" s="6" t="s">
+      <c r="L205" t="s" s="6">
         <v>22</v>
       </c>
       <c r="M205" s="5"/>
@@ -7925,7 +8374,7 @@
       <c r="Q205" s="5"/>
       <c r="R205" s="8"/>
       <c r="S205" s="7"/>
-      <c r="Z205" s="6" t="s">
+      <c r="Z205" t="s" s="6">
         <v>22</v>
       </c>
       <c r="AA205" s="5"/>
@@ -7936,11 +8385,11 @@
       <c r="AF205" s="8"/>
       <c r="AG205" s="7"/>
     </row>
-    <row r="206" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B206" t="s">
+    <row r="206">
+      <c r="B206" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="C206" t="s" s="10">
         <v>149</v>
       </c>
       <c r="D206" s="9"/>
@@ -7950,7 +8399,7 @@
       <c r="H206" s="9"/>
       <c r="I206" s="12"/>
       <c r="J206" s="11"/>
-      <c r="L206" s="10" t="s">
+      <c r="L206" t="s" s="10">
         <v>150</v>
       </c>
       <c r="M206" s="9"/>
@@ -7961,8 +8410,8 @@
       <c r="R206" s="12"/>
       <c r="S206" s="11"/>
     </row>
-    <row r="207" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C207" s="10" t="s">
+    <row r="207">
+      <c r="C207" t="s" s="10">
         <v>150</v>
       </c>
       <c r="D207" s="9"/>
@@ -7972,7 +8421,7 @@
       <c r="H207" s="9"/>
       <c r="I207" s="12"/>
       <c r="J207" s="11"/>
-      <c r="L207" s="10" t="s">
+      <c r="L207" t="s" s="10">
         <v>149</v>
       </c>
       <c r="M207" s="9"/>
@@ -7982,7 +8431,7 @@
       <c r="Q207" s="9"/>
       <c r="R207" s="12"/>
       <c r="S207" s="11"/>
-      <c r="Z207" s="10" t="s">
+      <c r="Z207" t="s" s="10">
         <v>151</v>
       </c>
       <c r="AA207" s="9"/>
@@ -7993,11 +8442,11 @@
       <c r="AF207" s="12"/>
       <c r="AG207" s="11"/>
     </row>
-    <row r="208" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B208" t="s">
+    <row r="208">
+      <c r="B208" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="L208" s="10" t="s">
+      <c r="L208" t="s" s="10">
         <v>152</v>
       </c>
       <c r="M208" s="9"/>
@@ -8007,7 +8456,7 @@
       <c r="Q208" s="9"/>
       <c r="R208" s="12"/>
       <c r="S208" s="11"/>
-      <c r="Z208" s="10" t="s">
+      <c r="Z208" t="s" s="10">
         <v>153</v>
       </c>
       <c r="AA208" s="9"/>
@@ -8018,58 +8467,96 @@
       <c r="AF208" s="12"/>
       <c r="AG208" s="11"/>
     </row>
-    <row r="210" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B210">
+    <row r="209"/>
+    <row r="210">
+      <c r="B210" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C210" s="32"/>
+      <c r="D210" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E210" s="32"/>
+      <c r="F210" s="32"/>
+      <c r="G210" s="32"/>
+      <c r="H210" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I210" s="32"/>
+      <c r="J210" s="32"/>
+      <c r="K210" s="32"/>
+      <c r="L210" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M210" s="32"/>
+      <c r="N210" s="32"/>
+      <c r="O210" s="32"/>
+      <c r="P210" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q210" s="32"/>
+      <c r="R210" s="32"/>
+      <c r="S210" s="32"/>
+      <c r="T210" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D210" t="s">
-        <v>0</v>
-      </c>
-      <c r="H210" t="s">
-        <v>1</v>
-      </c>
-      <c r="L210" t="s">
-        <v>2</v>
-      </c>
-      <c r="P210" t="s">
-        <v>3</v>
-      </c>
-      <c r="T210" t="s">
-        <v>4</v>
-      </c>
-      <c r="X210" t="s">
+      <c r="U210" s="32"/>
+      <c r="V210" s="32"/>
+      <c r="W210" s="32"/>
+      <c r="X210" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AB210" t="s">
+      <c r="Y210" s="32"/>
+      <c r="Z210" s="32"/>
+      <c r="AA210" s="32"/>
+      <c r="AB210" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AF210" t="s">
+      <c r="AC210" s="32"/>
+      <c r="AD210" s="32"/>
+      <c r="AE210" s="32"/>
+      <c r="AF210" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AJ210" t="s">
+      <c r="AG210" s="32"/>
+      <c r="AH210" s="32"/>
+      <c r="AI210" s="32"/>
+      <c r="AJ210" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AN210" t="s">
+      <c r="AK210" s="32"/>
+      <c r="AL210" s="32"/>
+      <c r="AM210" s="32"/>
+      <c r="AN210" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AR210" t="s">
+      <c r="AO210" s="32"/>
+      <c r="AP210" s="32"/>
+      <c r="AQ210" s="32"/>
+      <c r="AR210" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AV210" t="s">
+      <c r="AS210" s="32"/>
+      <c r="AT210" s="32"/>
+      <c r="AU210" s="32"/>
+      <c r="AV210" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AZ210" t="s">
+      <c r="AW210" s="32"/>
+      <c r="AX210" s="32"/>
+      <c r="AY210" s="32"/>
+      <c r="AZ210" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
-        <v>45663</v>
-      </c>
-      <c r="B211" t="s">
+    <row r="211">
+      <c r="A211" t="n" s="1">
+        <v>45663.0</v>
+      </c>
+      <c r="B211" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="C211" t="s" s="10">
         <v>153</v>
       </c>
       <c r="D211" s="9"/>
@@ -8079,7 +8566,7 @@
       <c r="H211" s="9"/>
       <c r="I211" s="12"/>
       <c r="J211" s="11"/>
-      <c r="Z211" s="10" t="s">
+      <c r="Z211" t="s" s="10">
         <v>137</v>
       </c>
       <c r="AA211" s="9"/>
@@ -8089,7 +8576,7 @@
       <c r="AE211" s="9"/>
       <c r="AF211" s="12"/>
       <c r="AG211" s="11"/>
-      <c r="AI211" s="10" t="s">
+      <c r="AI211" t="s" s="10">
         <v>137</v>
       </c>
       <c r="AJ211" s="9"/>
@@ -8099,7 +8586,7 @@
       <c r="AN211" s="9"/>
       <c r="AO211" s="12"/>
       <c r="AP211" s="11"/>
-      <c r="AR211" s="10" t="s">
+      <c r="AR211" t="s" s="10">
         <v>137</v>
       </c>
       <c r="AS211" s="9"/>
@@ -8112,8 +8599,8 @@
       <c r="AZ211" s="12"/>
       <c r="BA211" s="11"/>
     </row>
-    <row r="212" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="L212" s="10" t="s">
+    <row r="212">
+      <c r="L212" t="s" s="10">
         <v>151</v>
       </c>
       <c r="M212" s="9"/>
@@ -8123,7 +8610,7 @@
       <c r="Q212" s="9"/>
       <c r="R212" s="12"/>
       <c r="S212" s="11"/>
-      <c r="Z212" s="10" t="s">
+      <c r="Z212" t="s" s="10">
         <v>138</v>
       </c>
       <c r="AA212" s="9"/>
@@ -8134,11 +8621,11 @@
       <c r="AF212" s="12"/>
       <c r="AG212" s="11"/>
     </row>
-    <row r="213" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B213" t="s">
+    <row r="213">
+      <c r="B213" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" t="s" s="2">
         <v>139</v>
       </c>
       <c r="D213" s="4"/>
@@ -8148,7 +8635,7 @@
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
       <c r="J213" s="3"/>
-      <c r="L213" s="2" t="s">
+      <c r="L213" t="s" s="2">
         <v>135</v>
       </c>
       <c r="M213" s="4"/>
@@ -8158,7 +8645,7 @@
       <c r="Q213" s="4"/>
       <c r="R213" s="4"/>
       <c r="S213" s="3"/>
-      <c r="Z213" s="2" t="s">
+      <c r="Z213" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AA213" s="4"/>
@@ -8168,7 +8655,7 @@
       <c r="AE213" s="4"/>
       <c r="AF213" s="4"/>
       <c r="AG213" s="3"/>
-      <c r="AI213" s="2" t="s">
+      <c r="AI213" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AJ213" s="4"/>
@@ -8179,8 +8666,8 @@
       <c r="AO213" s="4"/>
       <c r="AP213" s="3"/>
     </row>
-    <row r="214" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C214" s="6" t="s">
+    <row r="214">
+      <c r="C214" t="s" s="6">
         <v>22</v>
       </c>
       <c r="D214" s="5"/>
@@ -8190,7 +8677,7 @@
       <c r="H214" s="5"/>
       <c r="I214" s="8"/>
       <c r="J214" s="7"/>
-      <c r="L214" s="6" t="s">
+      <c r="L214" t="s" s="6">
         <v>136</v>
       </c>
       <c r="M214" s="5"/>
@@ -8200,7 +8687,7 @@
       <c r="Q214" s="5"/>
       <c r="R214" s="8"/>
       <c r="S214" s="7"/>
-      <c r="Z214" s="6" t="s">
+      <c r="Z214" t="s" s="6">
         <v>141</v>
       </c>
       <c r="AA214" s="5"/>
@@ -8210,7 +8697,7 @@
       <c r="AE214" s="5"/>
       <c r="AF214" s="8"/>
       <c r="AG214" s="7"/>
-      <c r="AI214" s="6" t="s">
+      <c r="AI214" t="s" s="6">
         <v>141</v>
       </c>
       <c r="AJ214" s="5"/>
@@ -8221,11 +8708,11 @@
       <c r="AO214" s="8"/>
       <c r="AP214" s="7"/>
     </row>
-    <row r="215" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B215" t="s">
+    <row r="215">
+      <c r="B215" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" t="s" s="2">
         <v>142</v>
       </c>
       <c r="D215" s="4"/>
@@ -8235,7 +8722,7 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
       <c r="J215" s="3"/>
-      <c r="L215" s="2" t="s">
+      <c r="L215" t="s" s="2">
         <v>144</v>
       </c>
       <c r="M215" s="4"/>
@@ -8245,7 +8732,7 @@
       <c r="Q215" s="4"/>
       <c r="R215" s="4"/>
       <c r="S215" s="3"/>
-      <c r="Z215" s="10" t="s">
+      <c r="Z215" t="s" s="10">
         <v>152</v>
       </c>
       <c r="AA215" s="9"/>
@@ -8255,7 +8742,7 @@
       <c r="AE215" s="9"/>
       <c r="AF215" s="12"/>
       <c r="AG215" s="11"/>
-      <c r="AI215" s="10" t="s">
+      <c r="AI215" t="s" s="10">
         <v>138</v>
       </c>
       <c r="AJ215" s="9"/>
@@ -8266,8 +8753,8 @@
       <c r="AO215" s="12"/>
       <c r="AP215" s="11"/>
     </row>
-    <row r="216" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C216" s="6" t="s">
+    <row r="216">
+      <c r="C216" t="s" s="6">
         <v>154</v>
       </c>
       <c r="D216" s="5"/>
@@ -8277,7 +8764,7 @@
       <c r="H216" s="5"/>
       <c r="I216" s="8"/>
       <c r="J216" s="7"/>
-      <c r="L216" s="6" t="s">
+      <c r="L216" t="s" s="6">
         <v>22</v>
       </c>
       <c r="M216" s="5"/>
@@ -8288,11 +8775,11 @@
       <c r="R216" s="8"/>
       <c r="S216" s="7"/>
     </row>
-    <row r="217" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B217" t="s">
+    <row r="217">
+      <c r="B217" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="L217" s="10" t="s">
+      <c r="L217" t="s" s="10">
         <v>150</v>
       </c>
       <c r="M217" s="9"/>
@@ -8303,8 +8790,8 @@
       <c r="R217" s="12"/>
       <c r="S217" s="11"/>
     </row>
-    <row r="218" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C218" s="10" t="s">
+    <row r="218">
+      <c r="C218" t="s" s="10">
         <v>150</v>
       </c>
       <c r="D218" s="9"/>
@@ -8315,11 +8802,11 @@
       <c r="I218" s="12"/>
       <c r="J218" s="11"/>
     </row>
-    <row r="219" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B219" t="s">
+    <row r="219">
+      <c r="B219" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" t="s" s="2">
         <v>148</v>
       </c>
       <c r="D219" s="4"/>
@@ -8329,12 +8816,12 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="3"/>
-      <c r="L219" s="10" t="s">
+      <c r="L219" t="s" s="10">
         <v>64</v>
       </c>
       <c r="M219" s="12"/>
       <c r="N219" s="11"/>
-      <c r="Z219" s="10" t="s">
+      <c r="Z219" t="s" s="10">
         <v>149</v>
       </c>
       <c r="AA219" s="9"/>
@@ -8345,8 +8832,8 @@
       <c r="AF219" s="12"/>
       <c r="AG219" s="11"/>
     </row>
-    <row r="220" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C220" s="6" t="s">
+    <row r="220">
+      <c r="C220" t="s" s="6">
         <v>22</v>
       </c>
       <c r="D220" s="5"/>
@@ -8356,7 +8843,7 @@
       <c r="H220" s="5"/>
       <c r="I220" s="8"/>
       <c r="J220" s="7"/>
-      <c r="L220" s="10" t="s">
+      <c r="L220" t="s" s="10">
         <v>149</v>
       </c>
       <c r="M220" s="9"/>
@@ -8368,6 +8855,6 @@
       <c r="S220" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>